--- a/100runs/run036/NotionalETEOutput036.xlsx
+++ b/100runs/run036/NotionalETEOutput036.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_HIGHWIND_205.MISSILE_HIGHWIND_205</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_431.MISSILE_SOMERSAULT_431</t>
+    <t>MISSILE_SOMERSAULT_16.MISSILE_SOMERSAULT_16</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_253.MISSILE_HELLMASKER_253</t>
+    <t>MISSILE_BRAVER_460.MISSILE_BRAVER_460</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_238.MISSILE_SOMERSAULT_238</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_467.MISSILE_HIGHWIND_467</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,28 +483,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G2">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H2">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I2">
-        <v>-1842.756315911948</v>
+        <v>1114860.345521116</v>
       </c>
       <c r="J2">
-        <v>891.0978522142658</v>
+        <v>4843221.64583377</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.438712417</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,28 +518,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G3">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H3">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I3">
-        <v>-1806.375399459838</v>
+        <v>1114889.959490701</v>
       </c>
       <c r="J3">
-        <v>869.4211893226241</v>
+        <v>4843172.994261896</v>
       </c>
       <c r="K3">
-        <v>239.6066822258749</v>
+        <v>3984671.234484614</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,28 +553,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G4">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H4">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I4">
-        <v>-1769.098636409925</v>
+        <v>1114920.302677042</v>
       </c>
       <c r="J4">
-        <v>847.7445264309824</v>
+        <v>4843124.342690022</v>
       </c>
       <c r="K4">
-        <v>467.2654769583659</v>
+        <v>3984959.881607061</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,28 +588,28 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G5">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H5">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I5">
-        <v>-1730.903967363901</v>
+        <v>1114951.393036432</v>
       </c>
       <c r="J5">
-        <v>826.0678635393407</v>
+        <v>4843075.691118148</v>
       </c>
       <c r="K5">
-        <v>682.9763841974745</v>
+        <v>3985233.380079755</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G6">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H6">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I6">
-        <v>-1691.76878973107</v>
+        <v>1114983.248967319</v>
       </c>
       <c r="J6">
-        <v>804.3912006476991</v>
+        <v>4843027.039546275</v>
       </c>
       <c r="K6">
-        <v>886.7394039431994</v>
+        <v>3985491.729902698</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,28 +658,28 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G7">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H7">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I7">
-        <v>-1651.669944352733</v>
+        <v>1115015.889321197</v>
       </c>
       <c r="J7">
-        <v>782.7145377560573</v>
+        <v>4842978.387974401</v>
       </c>
       <c r="K7">
-        <v>1078.554536195542</v>
+        <v>3985734.931075889</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +693,28 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G8">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H8">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I8">
-        <v>-1610.583701797216</v>
+        <v>1115049.333413761</v>
       </c>
       <c r="J8">
-        <v>761.0378748644156</v>
+        <v>4842929.736402526</v>
       </c>
       <c r="K8">
-        <v>1258.421780954502</v>
+        <v>3985962.983599329</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +728,28 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G9">
-        <v>-120.5624130050047</v>
+        <v>4841126.55314981</v>
       </c>
       <c r="H9">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I9">
-        <v>-1568.485748317419</v>
+        <v>1115083.601036337</v>
       </c>
       <c r="J9">
-        <v>739.3612119727738</v>
+        <v>4842881.084830653</v>
       </c>
       <c r="K9">
-        <v>1426.341138220078</v>
+        <v>3986175.887473017</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,28 +763,28 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>141.4780799378351</v>
+        <v>1116577.775707448</v>
       </c>
       <c r="G10">
-        <v>-100.6541650092161</v>
+        <v>4841143.065975808</v>
       </c>
       <c r="H10">
-        <v>790.2847924518314</v>
+        <v>3985229.676938929</v>
       </c>
       <c r="I10">
-        <v>-1525.35117146259</v>
+        <v>1115118.712467592</v>
       </c>
       <c r="J10">
-        <v>717.6845490811322</v>
+        <v>4842832.433258779</v>
       </c>
       <c r="K10">
-        <v>1582.312607992271</v>
+        <v>3986373.642696953</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,28 +798,28 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>109.8034943635429</v>
+        <v>1116529.095175424</v>
       </c>
       <c r="G11">
-        <v>-80.74591701342743</v>
+        <v>4841159.578801805</v>
       </c>
       <c r="H11">
-        <v>973.6255464301775</v>
+        <v>3985428.93141313</v>
       </c>
       <c r="I11">
-        <v>-1481.154445335793</v>
+        <v>1115154.68848554</v>
       </c>
       <c r="J11">
-        <v>696.0078861894906</v>
+        <v>4842783.781686906</v>
       </c>
       <c r="K11">
-        <v>1726.33619027108</v>
+        <v>3986556.249271138</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,28 +833,28 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>91.19626430738484</v>
+        <v>1116500.497804939</v>
       </c>
       <c r="G12">
-        <v>-60.83766901763883</v>
+        <v>4841176.091627804</v>
       </c>
       <c r="H12">
-        <v>1082.832675901806</v>
+        <v>3985547.617568225</v>
       </c>
       <c r="I12">
-        <v>-1435.869415488367</v>
+        <v>1115191.550379834</v>
       </c>
       <c r="J12">
-        <v>674.3312232978489</v>
+        <v>4842735.130115031</v>
       </c>
       <c r="K12">
-        <v>1858.411885056508</v>
+        <v>3986723.707195571</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,28 +868,28 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>79.45001560047366</v>
+        <v>1116482.445046679</v>
       </c>
       <c r="G13">
-        <v>-40.92942102185021</v>
+        <v>4841192.604453801</v>
       </c>
       <c r="H13">
-        <v>1160.875630307469</v>
+        <v>3985632.434541581</v>
       </c>
       <c r="I13">
-        <v>-1389.46928344241</v>
+        <v>1115229.319964361</v>
       </c>
       <c r="J13">
-        <v>652.654560406207</v>
+        <v>4842686.478543158</v>
       </c>
       <c r="K13">
-        <v>1978.539692348552</v>
+        <v>3986876.016470253</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -906,28 +903,28 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>71.25822943309655</v>
+        <v>1116469.855126349</v>
       </c>
       <c r="G14">
-        <v>-21.02117302606159</v>
+        <v>4841209.117279799</v>
       </c>
       <c r="H14">
-        <v>1221.647637091616</v>
+        <v>3985698.481473292</v>
       </c>
       <c r="I14">
-        <v>-1341.926590832162</v>
+        <v>1115268.019590161</v>
       </c>
       <c r="J14">
-        <v>630.9778975145653</v>
+        <v>4842637.826971284</v>
       </c>
       <c r="K14">
-        <v>2086.719612147213</v>
+        <v>3987013.177095183</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -941,28 +938,28 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>65.14691163622733</v>
+        <v>1116460.462668758</v>
       </c>
       <c r="G15">
-        <v>-1.112925030272986</v>
+        <v>4841225.630105796</v>
       </c>
       <c r="H15">
-        <v>1271.424624554358</v>
+        <v>3985752.579033431</v>
       </c>
       <c r="I15">
-        <v>-1293.213203154861</v>
+        <v>1115307.672158642</v>
       </c>
       <c r="J15">
-        <v>609.3012346229236</v>
+        <v>4842589.175399411</v>
       </c>
       <c r="K15">
-        <v>2182.951644452491</v>
+        <v>3987135.189070361</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,28 +973,28 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>60.36871453930477</v>
+        <v>1116453.11907854</v>
       </c>
       <c r="G16">
-        <v>18.79532296551563</v>
+        <v>4841242.142931794</v>
       </c>
       <c r="H16">
-        <v>1313.582099391326</v>
+        <v>3985798.395717938</v>
       </c>
       <c r="I16">
-        <v>-1243.300293121501</v>
+        <v>1115348.301135143</v>
       </c>
       <c r="J16">
-        <v>587.6245717312819</v>
+        <v>4842540.523827536</v>
       </c>
       <c r="K16">
-        <v>2267.235789264385</v>
+        <v>3987242.052395788</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1011,28 +1008,28 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>56.50280517595574</v>
+        <v>1116447.177579349</v>
       </c>
       <c r="G17">
-        <v>38.70357096130426</v>
+        <v>4841258.655757792</v>
       </c>
       <c r="H17">
-        <v>1350.146030791977</v>
+        <v>3985838.133347286</v>
       </c>
       <c r="I17">
-        <v>-1192.158323597605</v>
+        <v>1115389.930562812</v>
       </c>
       <c r="J17">
-        <v>565.9479088396403</v>
+        <v>4842491.872255662</v>
       </c>
       <c r="K17">
-        <v>2339.572046582897</v>
+        <v>3987333.767071463</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1046,28 +1043,28 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>53.29272290370074</v>
+        <v>1116442.244017946</v>
       </c>
       <c r="G18">
-        <v>58.61181895709286</v>
+        <v>4841275.16858379</v>
       </c>
       <c r="H18">
-        <v>1382.428364082509</v>
+        <v>3985873.217741814</v>
       </c>
       <c r="I18">
-        <v>-1139.757030123933</v>
+        <v>1115432.585076839</v>
       </c>
       <c r="J18">
-        <v>544.2712459479985</v>
+        <v>4842443.220683789</v>
       </c>
       <c r="K18">
-        <v>2399.960416408026</v>
+        <v>3987410.333097387</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,28 +1078,28 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>50.57241970664552</v>
+        <v>1116438.063195861</v>
       </c>
       <c r="G19">
-        <v>78.52006695288149</v>
+        <v>4841291.681409787</v>
       </c>
       <c r="H19">
-        <v>1411.327548515266</v>
+        <v>3985904.625334912</v>
       </c>
       <c r="I19">
-        <v>-1086.065403006777</v>
+        <v>1115476.289919033</v>
       </c>
       <c r="J19">
-        <v>522.5945830563568</v>
+        <v>4842394.569111915</v>
       </c>
       <c r="K19">
-        <v>2448.400898739771</v>
+        <v>3987471.750473559</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,28 +1113,28 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>48.22914389615878</v>
+        <v>1116434.461825517</v>
       </c>
       <c r="G20">
-        <v>98.42831494867011</v>
+        <v>4841308.194235785</v>
       </c>
       <c r="H20">
-        <v>1437.485900268166</v>
+        <v>3985933.054194897</v>
       </c>
       <c r="I20">
-        <v>-1031.051668967252</v>
+        <v>1115521.070952758</v>
       </c>
       <c r="J20">
-        <v>500.9179201647152</v>
+        <v>4842345.917540041</v>
       </c>
       <c r="K20">
-        <v>2484.893493578134</v>
+        <v>3987518.019199979</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,28 +1148,28 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>46.18334303247858</v>
+        <v>1116431.317643118</v>
       </c>
       <c r="G21">
-        <v>118.3365629444587</v>
+        <v>4841324.707061783</v>
       </c>
       <c r="H21">
-        <v>1461.37856777762</v>
+        <v>3985959.020712425</v>
       </c>
       <c r="I21">
-        <v>-974.6832723387115</v>
+        <v>1115566.95467824</v>
       </c>
       <c r="J21">
-        <v>479.2412572730734</v>
+        <v>4842297.265968168</v>
       </c>
       <c r="K21">
-        <v>2509.438200923114</v>
+        <v>3987549.139276648</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1186,28 +1183,28 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>44.37709422791673</v>
+        <v>1116428.541627231</v>
       </c>
       <c r="G22">
-        <v>138.2448109402473</v>
+        <v>4841341.21988778</v>
       </c>
       <c r="H22">
-        <v>1483.366938057922</v>
+        <v>3985982.917642397</v>
       </c>
       <c r="I22">
-        <v>-916.9268558011669</v>
+        <v>1115613.968248251</v>
       </c>
       <c r="J22">
-        <v>457.5645943814317</v>
+        <v>4842248.614396295</v>
       </c>
       <c r="K22">
-        <v>2522.03502077471</v>
+        <v>3987565.110703566</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1221,28 +1218,28 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>42.76709991250332</v>
+        <v>1116426.06723401</v>
       </c>
       <c r="G23">
-        <v>158.1530589360359</v>
+        <v>4841357.732713779</v>
       </c>
       <c r="H23">
-        <v>1503.732283926091</v>
+        <v>3986005.050671714</v>
       </c>
       <c r="I23">
-        <v>-857.7482406413141</v>
+        <v>1115662.139484171</v>
       </c>
       <c r="J23">
-        <v>435.88793148979</v>
+        <v>4842199.962824421</v>
       </c>
       <c r="K23">
-        <v>2522.683953132923</v>
+        <v>3987565.933480731</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1256,28 +1253,28 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>41.32026575531324</v>
+        <v>1116423.843600922</v>
       </c>
       <c r="G24">
-        <v>178.0613069318246</v>
+        <v>4841374.245539777</v>
       </c>
       <c r="H24">
-        <v>1522.697823395005</v>
+        <v>3986025.662393401</v>
       </c>
       <c r="I24">
-        <v>-797.1124065264779</v>
+        <v>1115711.496892459</v>
       </c>
       <c r="J24">
-        <v>414.2112685981483</v>
+        <v>4842151.311252546</v>
       </c>
       <c r="K24">
-        <v>2511.384997997754</v>
+        <v>3987551.607608145</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,28 +1288,28 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>40.0108078720634</v>
+        <v>1116421.831100829</v>
       </c>
       <c r="G25">
-        <v>197.9695549276132</v>
+        <v>4841390.758365774</v>
       </c>
       <c r="H25">
-        <v>1540.443673073502</v>
+        <v>3986044.948557935</v>
       </c>
       <c r="I25">
-        <v>-734.9834707805077</v>
+        <v>1115762.069681518</v>
       </c>
       <c r="J25">
-        <v>392.5346057065066</v>
+        <v>4842102.659680673</v>
       </c>
       <c r="K25">
-        <v>2488.138155369201</v>
+        <v>3987522.133085807</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,28 +1323,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>38.81830196543418</v>
+        <v>1116419.998343717</v>
       </c>
       <c r="G26">
-        <v>217.8778029234018</v>
+        <v>4841407.271191772</v>
       </c>
       <c r="H26">
-        <v>1557.117276958291</v>
+        <v>3986063.069407244</v>
       </c>
       <c r="I26">
-        <v>-671.3246671493662</v>
+        <v>1115813.887778982</v>
       </c>
       <c r="J26">
-        <v>370.8579428148648</v>
+        <v>4842054.008108799</v>
       </c>
       <c r="K26">
-        <v>2452.943425247265</v>
+        <v>3987477.509913718</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,28 +1358,28 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>37.72633254237257</v>
+        <v>1116418.320100687</v>
       </c>
       <c r="G27">
-        <v>237.7860509191904</v>
+        <v>4841423.784017769</v>
       </c>
       <c r="H27">
-        <v>1572.84086015698</v>
+        <v>3986080.157775404</v>
       </c>
       <c r="I27">
-        <v>-606.0983240438334</v>
+        <v>1115866.981849423</v>
       </c>
       <c r="J27">
-        <v>349.1812799232231</v>
+        <v>4842005.356536925</v>
       </c>
       <c r="K27">
-        <v>2405.800807631947</v>
+        <v>3987417.738091877</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,28 +1393,28 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>36.721535809252</v>
+        <v>1116416.775832983</v>
       </c>
       <c r="G28">
-        <v>257.694298914979</v>
+        <v>4841440.296843767</v>
       </c>
       <c r="H28">
-        <v>1587.71687125635</v>
+        <v>3986096.325003397</v>
       </c>
       <c r="I28">
-        <v>-539.2658422464625</v>
+        <v>1115921.383312504</v>
       </c>
       <c r="J28">
-        <v>327.5046170315815</v>
+        <v>4841956.704965051</v>
       </c>
       <c r="K28">
-        <v>2346.710302523245</v>
+        <v>3987342.817620285</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,28 +1428,28 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>35.79290757690107</v>
+        <v>1116415.348628314</v>
       </c>
       <c r="G29">
-        <v>277.6025469107677</v>
+        <v>4841456.809669765</v>
       </c>
       <c r="H29">
-        <v>1601.832031425721</v>
+        <v>3986111.665339665</v>
       </c>
       <c r="I29">
-        <v>-470.7876720695863</v>
+        <v>1115977.124361565</v>
       </c>
       <c r="J29">
-        <v>305.8279541399397</v>
+        <v>4841908.053393178</v>
       </c>
       <c r="K29">
-        <v>2275.67190992116</v>
+        <v>3987252.748498941</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,28 +1463,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>34.9312936726951</v>
+        <v>1116414.024417674</v>
       </c>
       <c r="G30">
-        <v>297.5107949065562</v>
+        <v>4841473.322495762</v>
       </c>
       <c r="H30">
-        <v>1615.260397504685</v>
+        <v>3986126.259269081</v>
       </c>
       <c r="I30">
-        <v>-400.6232899508663</v>
+        <v>1116034.237982678</v>
       </c>
       <c r="J30">
-        <v>284.151291248298</v>
+        <v>4841859.401821304</v>
       </c>
       <c r="K30">
-        <v>2192.685629825692</v>
+        <v>3987147.530727846</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,28 +1498,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>34.12900861949427</v>
+        <v>1116412.791389285</v>
       </c>
       <c r="G31">
-        <v>317.4190429023449</v>
+        <v>4841489.835321761</v>
       </c>
       <c r="H31">
-        <v>1628.065713874168</v>
+        <v>3986140.176068945</v>
       </c>
       <c r="I31">
-        <v>-328.7311744725208</v>
+        <v>1116092.757974168</v>
       </c>
       <c r="J31">
-        <v>262.4746283566564</v>
+        <v>4841810.75024943</v>
       </c>
       <c r="K31">
-        <v>2097.751462236841</v>
+        <v>3987027.164306999</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1536,28 +1533,28 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>33.37954611703822</v>
+        <v>1116411.639543643</v>
       </c>
       <c r="G32">
-        <v>337.3272908981335</v>
+        <v>4841506.348147758</v>
       </c>
       <c r="H32">
-        <v>1640.303242512171</v>
+        <v>3986153.4757979</v>
       </c>
       <c r="I32">
-        <v>-255.0687817900547</v>
+        <v>1116152.71896661</v>
       </c>
       <c r="J32">
-        <v>240.7979654650146</v>
+        <v>4841762.098677556</v>
       </c>
       <c r="K32">
-        <v>1990.869407154607</v>
+        <v>3986891.6492364</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1571,28 +1568,28 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>32.67735631495962</v>
+        <v>1116410.560351207</v>
       </c>
       <c r="G33">
-        <v>357.2355388939221</v>
+        <v>4841522.860973756</v>
       </c>
       <c r="H33">
-        <v>1652.021204282744</v>
+        <v>3986166.210862312</v>
       </c>
       <c r="I33">
-        <v>-179.592520455941</v>
+        <v>1116214.156443328</v>
       </c>
       <c r="J33">
-        <v>219.1213025733729</v>
+        <v>4841713.447105682</v>
       </c>
       <c r="K33">
-        <v>1872.03946457899</v>
+        <v>3986740.985516049</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1606,28 +1603,28 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>32.01767240878774</v>
+        <v>1116409.546485897</v>
       </c>
       <c r="G34">
-        <v>377.1437868897107</v>
+        <v>4841539.373799753</v>
       </c>
       <c r="H34">
-        <v>1663.261926537144</v>
+        <v>3986178.427263488</v>
       </c>
       <c r="I34">
-        <v>-102.2577256233618</v>
+        <v>1116277.106761389</v>
       </c>
       <c r="J34">
-        <v>197.4446396817312</v>
+        <v>4841664.795533809</v>
       </c>
       <c r="K34">
-        <v>1741.26163450999</v>
+        <v>3986575.173145948</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,28 +1638,28 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>31.39637415567687</v>
+        <v>1116408.59161533</v>
       </c>
       <c r="G35">
-        <v>397.0520348854994</v>
+        <v>4841555.886625751</v>
       </c>
       <c r="H35">
-        <v>1674.062766036778</v>
+        <v>3986190.165600703</v>
       </c>
       <c r="I35">
-        <v>-23.01863261473741</v>
+        <v>1116341.607173119</v>
       </c>
       <c r="J35">
-        <v>175.7679767900894</v>
+        <v>4841616.143961934</v>
       </c>
       <c r="K35">
-        <v>1598.535916947606</v>
+        <v>3986394.212126094</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,28 +1673,28 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>30.80987936997116</v>
+        <v>1116407.690234059</v>
       </c>
       <c r="G36">
-        <v>416.960282881288</v>
+        <v>4841572.399451748</v>
       </c>
       <c r="H36">
-        <v>1684.456858000125</v>
+        <v>3986201.461885266</v>
       </c>
       <c r="I36">
-        <v>58.17165016059572</v>
+        <v>1116407.695848148</v>
       </c>
       <c r="J36">
-        <v>154.0913138984478</v>
+        <v>4841567.492390061</v>
       </c>
       <c r="K36">
-        <v>1443.86231189184</v>
+        <v>3986198.102456489</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,28 +1708,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>30.25505686584392</v>
+        <v>1116406.837529779</v>
       </c>
       <c r="G37">
-        <v>436.8685308770766</v>
+        <v>4841588.912277747</v>
       </c>
       <c r="H37">
-        <v>1694.473729159711</v>
+        <v>3986212.348206789</v>
       </c>
       <c r="I37">
-        <v>141.3611689555808</v>
+        <v>1116475.411896</v>
       </c>
       <c r="J37">
-        <v>132.4146510068061</v>
+        <v>4841518.840818187</v>
       </c>
       <c r="K37">
-        <v>1277.240819342691</v>
+        <v>3985986.844137132</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,28 +1743,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>29.72915601253426</v>
+        <v>1116406.029275058</v>
       </c>
       <c r="G38">
-        <v>456.7767788728652</v>
+        <v>4841605.425103744</v>
       </c>
       <c r="H38">
-        <v>1704.139803420859</v>
+        <v>3986222.853282735</v>
       </c>
       <c r="I38">
-        <v>226.5991531179391</v>
+        <v>1116544.795389232</v>
       </c>
       <c r="J38">
-        <v>110.7379881151644</v>
+        <v>4841470.189246314</v>
       </c>
       <c r="K38">
-        <v>1098.671439300159</v>
+        <v>3985760.437168024</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,28 +1778,28 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>29.22974928256566</v>
+        <v>1116405.261739039</v>
       </c>
       <c r="G39">
-        <v>476.6850268686538</v>
+        <v>4841621.937929742</v>
       </c>
       <c r="H39">
-        <v>1713.478821937467</v>
+        <v>3986233.002914956</v>
       </c>
       <c r="I39">
-        <v>313.9360442227871</v>
+        <v>1116615.887387154</v>
       </c>
       <c r="J39">
-        <v>89.06132522352266</v>
+        <v>4841421.53767444</v>
       </c>
       <c r="K39">
-        <v>908.1541717642426</v>
+        <v>3985518.881549164</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,28 +1813,28 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>28.75468505352464</v>
+        <v>1116404.531614903</v>
       </c>
       <c r="G40">
-        <v>496.5932748644424</v>
+        <v>4841638.450755741</v>
       </c>
       <c r="H40">
-        <v>1722.512194419132</v>
+        <v>3986242.820371496</v>
       </c>
       <c r="I40">
-        <v>403.4235259226263</v>
+        <v>1116688.729960121</v>
       </c>
       <c r="J40">
-        <v>67.38466233188092</v>
+        <v>4841372.886102566</v>
       </c>
       <c r="K40">
-        <v>705.6890167349441</v>
+        <v>3985262.177280552</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,28 +1848,28 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>28.30204856928222</v>
+        <v>1116403.835959871</v>
       </c>
       <c r="G41">
-        <v>516.501522860231</v>
+        <v>4841654.963581737</v>
       </c>
       <c r="H41">
-        <v>1731.259294751796</v>
+        <v>3986252.326707865</v>
       </c>
       <c r="I41">
-        <v>495.1145545323491</v>
+        <v>1116763.366214433</v>
       </c>
       <c r="J41">
-        <v>45.70799944023927</v>
+        <v>4841324.234530693</v>
       </c>
       <c r="K41">
-        <v>491.2759742122628</v>
+        <v>3984990.324362189</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1886,28 +1883,28 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>27.87012944486336</v>
+        <v>1116403.172145257</v>
       </c>
       <c r="G42">
-        <v>536.4097708560196</v>
+        <v>4841671.476407736</v>
       </c>
       <c r="H42">
-        <v>1739.737711199604</v>
+        <v>3986261.541038966</v>
       </c>
       <c r="I42">
-        <v>589.0633903673887</v>
+        <v>1116839.840317844</v>
       </c>
       <c r="J42">
-        <v>24.03133654859753</v>
+        <v>4841275.582958819</v>
       </c>
       <c r="K42">
-        <v>264.9150441961979</v>
+        <v>3984703.322794074</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1921,28 +1918,28 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>27.45739445735725</v>
+        <v>1116402.53781466</v>
       </c>
       <c r="G43">
-        <v>556.3180188518083</v>
+        <v>4841687.989233734</v>
       </c>
       <c r="H43">
-        <v>1747.963459312659</v>
+        <v>3986270.480770475</v>
       </c>
       <c r="I43">
-        <v>685.3256298535211</v>
+        <v>1116918.197525696</v>
       </c>
       <c r="J43">
-        <v>2.354673656955779</v>
+        <v>4841226.931386945</v>
       </c>
       <c r="K43">
-        <v>26.60622668675003</v>
+        <v>3984401.172576208</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1956,28 +1953,28 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>27.06246463606827</v>
+        <v>1116401.930848745</v>
       </c>
       <c r="G44">
-        <v>576.2262668475969</v>
+        <v>4841704.502059731</v>
       </c>
       <c r="H44">
-        <v>1755.951164018699</v>
+        <v>3986279.161796742</v>
       </c>
       <c r="I44">
-        <v>783.9582384273624</v>
+        <v>1116998.484207704</v>
       </c>
       <c r="J44">
-        <v>-19.32198923468587</v>
+        <v>4841178.279815071</v>
       </c>
       <c r="K44">
-        <v>-223.6504783160802</v>
+        <v>3984083.87370859</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1991,28 +1988,28 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>26.68409587168236</v>
+        <v>1116401.349335446</v>
       </c>
       <c r="G45">
-        <v>596.1345148433854</v>
+        <v>4841721.014885729</v>
       </c>
       <c r="H45">
-        <v>1763.714216100822</v>
+        <v>3986287.598670854</v>
       </c>
       <c r="I45">
-        <v>885.019584246999</v>
+        <v>1117080.747875395</v>
       </c>
       <c r="J45">
-        <v>-40.99865212632761</v>
+        <v>4841129.628243198</v>
       </c>
       <c r="K45">
-        <v>-485.8550708122941</v>
+        <v>3983751.426191221</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2026,28 +2023,28 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>26.32116242312924</v>
+        <v>1116400.791544617</v>
       </c>
       <c r="G46">
-        <v>616.0427628391742</v>
+        <v>4841737.527711726</v>
       </c>
       <c r="H46">
-        <v>1771.264907266794</v>
+        <v>3986295.804751419</v>
       </c>
       <c r="I46">
-        <v>988.5694727327115</v>
+        <v>1117165.037210221</v>
       </c>
       <c r="J46">
-        <v>-62.67531501796936</v>
+        <v>4841080.976671323</v>
       </c>
       <c r="K46">
-        <v>-760.0075508018917</v>
+        <v>3983403.830024099</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2061,28 +2058,28 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>25.97264282402751</v>
+        <v>1116400.25590637</v>
       </c>
       <c r="G47">
-        <v>635.9510108349627</v>
+        <v>4841754.040537724</v>
       </c>
       <c r="H47">
-        <v>1778.614547231312</v>
+        <v>3986303.792329822</v>
       </c>
       <c r="I47">
-        <v>1094.669181958234</v>
+        <v>1117251.402092372</v>
       </c>
       <c r="J47">
-        <v>-84.35197790961111</v>
+        <v>4841032.32509945</v>
       </c>
       <c r="K47">
-        <v>-1046.107918284872</v>
+        <v>3983041.085207227</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,28 +2093,28 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>25.63760778683249</v>
+        <v>1116399.740992486</v>
       </c>
       <c r="G48">
-        <v>655.8592588307513</v>
+        <v>4841770.553363722</v>
       </c>
       <c r="H48">
-        <v>1785.773565611179</v>
+        <v>3986311.572740953</v>
       </c>
       <c r="I48">
-        <v>1203.381498913491</v>
+        <v>1117339.893630292</v>
       </c>
       <c r="J48">
-        <v>-106.0286408012526</v>
+        <v>4840983.673527576</v>
       </c>
       <c r="K48">
-        <v>-1344.156173261233</v>
+        <v>3982663.191740602</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,28 +2128,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>25.31520977850433</v>
+        <v>1116399.245500397</v>
       </c>
       <c r="G49">
-        <v>675.7675068265401</v>
+        <v>4841787.066189719</v>
       </c>
       <c r="H49">
-        <v>1792.751600937708</v>
+        <v>3986319.156459956</v>
       </c>
       <c r="I49">
-        <v>1314.770756660276</v>
+        <v>1117430.564190923</v>
       </c>
       <c r="J49">
-        <v>-127.7053036928944</v>
+        <v>4840935.021955702</v>
       </c>
       <c r="K49">
-        <v>-1654.152315730979</v>
+        <v>3982270.149624227</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,28 +2163,28 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>25.00467400144924</v>
+        <v>1116398.76823932</v>
       </c>
       <c r="G50">
-        <v>695.6757548223286</v>
+        <v>4841803.579015718</v>
       </c>
       <c r="H50">
-        <v>1799.557578692778</v>
+        <v>3986326.553187032</v>
       </c>
       <c r="I50">
-        <v>1428.902872402836</v>
+        <v>1117523.467430694</v>
       </c>
       <c r="J50">
-        <v>-149.3819665845361</v>
+        <v>4840886.370383828</v>
       </c>
       <c r="K50">
-        <v>-1976.096345694109</v>
+        <v>3981861.958858099</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,28 +2198,28 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>24.70529056124149</v>
+        <v>1116398.30811822</v>
       </c>
       <c r="G51">
-        <v>715.5840028181171</v>
+        <v>4841820.091841715</v>
       </c>
       <c r="H51">
-        <v>1806.199779953765</v>
+        <v>3986333.771922043</v>
       </c>
       <c r="I51">
-        <v>1545.845386495935</v>
+        <v>1117618.658327275</v>
       </c>
       <c r="J51">
-        <v>-171.0586294761779</v>
+        <v>4840837.718811954</v>
       </c>
       <c r="K51">
-        <v>-2309.988263150622</v>
+        <v>3981438.61944222</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2236,28 +2233,28 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>24.41640764091119</v>
+        <v>1116397.864135324</v>
       </c>
       <c r="G52">
-        <v>735.4922508139059</v>
+        <v>4841836.604667713</v>
       </c>
       <c r="H52">
-        <v>1812.685901971715</v>
+        <v>3986340.821030352</v>
       </c>
       <c r="I52">
-        <v>1665.667502413438</v>
+        <v>1117716.19321211</v>
       </c>
       <c r="J52">
-        <v>-192.7352923678196</v>
+        <v>4840789.067240081</v>
       </c>
       <c r="K52">
-        <v>-2655.828068100517</v>
+        <v>3981000.131376589</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2271,28 +2268,28 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>24.13742553243117</v>
+        <v>1116397.435368941</v>
       </c>
       <c r="G53">
-        <v>755.4004988096945</v>
+        <v>4841853.11749371</v>
       </c>
       <c r="H53">
-        <v>1819.023111794242</v>
+        <v>3986347.708301096</v>
       </c>
       <c r="I53">
-        <v>1788.440127701082</v>
+        <v>1117816.129803753</v>
       </c>
       <c r="J53">
-        <v>-214.4119552594612</v>
+        <v>4840740.415668207</v>
       </c>
       <c r="K53">
-        <v>-3013.615760543793</v>
+        <v>3980546.494661206</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2306,28 +2303,28 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>23.86779140103856</v>
+        <v>1116397.020969424</v>
       </c>
       <c r="G54">
-        <v>775.308746805483</v>
+        <v>4841869.630319709</v>
       </c>
       <c r="H54">
-        <v>1825.218093869967</v>
+        <v>3986354.440998925</v>
       </c>
       <c r="I54">
-        <v>1914.235915937691</v>
+        <v>1117918.527242027</v>
       </c>
       <c r="J54">
-        <v>-236.0886181511029</v>
+        <v>4840691.764096333</v>
       </c>
       <c r="K54">
-        <v>-3383.351340480455</v>
+        <v>3980077.709296073</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2341,28 +2338,28 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G55">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H55">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I55">
-        <v>-1727.133254987038</v>
+        <v>1114862.186233762</v>
       </c>
       <c r="J55">
-        <v>1388.759443990196</v>
+        <v>4843226.043830326</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.547799165</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2376,28 +2373,28 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G56">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H56">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I56">
-        <v>-1693.035045631425</v>
+        <v>1114891.800252242</v>
       </c>
       <c r="J56">
-        <v>1354.976767676752</v>
+        <v>4843177.392214273</v>
       </c>
       <c r="K56">
-        <v>197.0349229562428</v>
+        <v>3984671.34357968</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2411,28 +2408,28 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G57">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H57">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I57">
-        <v>-1658.097199240208</v>
+        <v>1114922.143488682</v>
       </c>
       <c r="J57">
-        <v>1321.194091363309</v>
+        <v>4843128.740598219</v>
       </c>
       <c r="K57">
-        <v>384.2447814782244</v>
+        <v>3984959.990710029</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2446,28 +2443,28 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G58">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H58">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I58">
-        <v>-1622.299040523836</v>
+        <v>1114953.233899404</v>
       </c>
       <c r="J58">
-        <v>1287.411415049865</v>
+        <v>4843080.088982167</v>
       </c>
       <c r="K58">
-        <v>561.6295755659461</v>
+        <v>3985233.489190212</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2481,28 +2478,28 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G59">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H59">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I59">
-        <v>-1585.619385082776</v>
+        <v>1114985.089882888</v>
       </c>
       <c r="J59">
-        <v>1253.628738736422</v>
+        <v>4843031.437366114</v>
       </c>
       <c r="K59">
-        <v>729.1893052194068</v>
+        <v>3985491.839020228</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2516,28 +2513,28 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G60">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H60">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I60">
-        <v>-1548.036526871143</v>
+        <v>1115017.730290658</v>
       </c>
       <c r="J60">
-        <v>1219.846062422978</v>
+        <v>4842982.785750061</v>
       </c>
       <c r="K60">
-        <v>886.923970438608</v>
+        <v>3985735.040200078</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2551,28 +2548,28 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G61">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H61">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I61">
-        <v>-1509.528225351645</v>
+        <v>1115051.17443844</v>
       </c>
       <c r="J61">
-        <v>1186.063386109535</v>
+        <v>4842934.134134008</v>
       </c>
       <c r="K61">
-        <v>1034.833571223548</v>
+        <v>3985963.092729761</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2586,28 +2583,28 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G62">
-        <v>-79.64085810912798</v>
+        <v>4841124.750002009</v>
       </c>
       <c r="H62">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I62">
-        <v>-1470.071692334217</v>
+        <v>1115085.442117593</v>
       </c>
       <c r="J62">
-        <v>1152.280709796091</v>
+        <v>4842885.482517955</v>
       </c>
       <c r="K62">
-        <v>1172.918107574228</v>
+        <v>3986175.996609278</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2621,28 +2618,28 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>253.0128098720467</v>
+        <v>1116578.387864423</v>
       </c>
       <c r="G63">
-        <v>-66.48991069263826</v>
+        <v>4841141.262821857</v>
       </c>
       <c r="H63">
-        <v>918.0400918399581</v>
+        <v>3985231.893666733</v>
       </c>
       <c r="I63">
-        <v>-1429.64357849058</v>
+        <v>1115120.553606821</v>
       </c>
       <c r="J63">
-        <v>1118.498033482648</v>
+        <v>4842836.830901902</v>
       </c>
       <c r="K63">
-        <v>1301.177579490647</v>
+        <v>3986373.751838629</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2656,28 +2653,28 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>196.3674560391021</v>
+        <v>1116529.70730571</v>
       </c>
       <c r="G64">
-        <v>-53.33896327614853</v>
+        <v>4841157.775641703</v>
       </c>
       <c r="H64">
-        <v>1131.019215603809</v>
+        <v>3985431.148251767</v>
       </c>
       <c r="I64">
-        <v>-1388.219959536725</v>
+        <v>1115156.529684168</v>
       </c>
       <c r="J64">
-        <v>1084.715357169204</v>
+        <v>4842788.179285849</v>
       </c>
       <c r="K64">
-        <v>1419.611986972806</v>
+        <v>3986556.358417813</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2691,28 +2688,28 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>163.0911522999451</v>
+        <v>1116501.109919546</v>
       </c>
       <c r="G65">
-        <v>-40.18801585965883</v>
+        <v>4841174.288461551</v>
       </c>
       <c r="H65">
-        <v>1257.88047388346</v>
+        <v>3985549.83447288</v>
       </c>
       <c r="I65">
-        <v>-1345.776322075163</v>
+        <v>1115193.391639323</v>
       </c>
       <c r="J65">
-        <v>1050.932680855761</v>
+        <v>4842739.527669797</v>
       </c>
       <c r="K65">
-        <v>1528.221330020704</v>
+        <v>3986723.816346831</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2726,28 +2723,28 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>142.0847081066301</v>
+        <v>1116483.057151389</v>
       </c>
       <c r="G66">
-        <v>-27.0370684431691</v>
+        <v>4841190.801281398</v>
       </c>
       <c r="H66">
-        <v>1348.539640951266</v>
+        <v>3985634.651493414</v>
       </c>
       <c r="I66">
-        <v>-1302.28754908854</v>
+        <v>1115231.161286211</v>
       </c>
       <c r="J66">
-        <v>1017.150004542317</v>
+        <v>4842690.876053744</v>
       </c>
       <c r="K66">
-        <v>1627.005608634343</v>
+        <v>3986876.125625683</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2761,28 +2758,28 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>127.4348991963752</v>
+        <v>1116470.467224157</v>
       </c>
       <c r="G67">
-        <v>-13.88612102667938</v>
+        <v>4841207.314101245</v>
       </c>
       <c r="H67">
-        <v>1419.135885776282</v>
+        <v>3985700.698461863</v>
       </c>
       <c r="I67">
-        <v>-1257.727905076059</v>
+        <v>1115269.860975906</v>
       </c>
       <c r="J67">
-        <v>983.3673282288737</v>
+        <v>4842642.224437691</v>
       </c>
       <c r="K67">
-        <v>1715.964822813721</v>
+        <v>3987013.286254368</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2796,28 +2793,28 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>116.505703037604</v>
+        <v>1116461.074761417</v>
       </c>
       <c r="G68">
-        <v>-0.7351736101896745</v>
+        <v>4841223.826921093</v>
       </c>
       <c r="H68">
-        <v>1476.95968623186</v>
+        <v>3985754.796052093</v>
       </c>
       <c r="I68">
-        <v>-1212.071020823892</v>
+        <v>1115309.513609856</v>
       </c>
       <c r="J68">
-        <v>949.5846519154303</v>
+        <v>4842593.572821639</v>
       </c>
       <c r="K68">
-        <v>1795.098972558837</v>
+        <v>3987135.298232887</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2831,28 +2828,28 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>107.9605978584409</v>
+        <v>1116453.731167173</v>
       </c>
       <c r="G69">
-        <v>12.41577380630005</v>
+        <v>4841240.339740939</v>
       </c>
       <c r="H69">
-        <v>1525.93222428488</v>
+        <v>3985800.612762084</v>
       </c>
       <c r="I69">
-        <v>-1165.289877800578</v>
+        <v>1115350.142653439</v>
       </c>
       <c r="J69">
-        <v>915.8019756019867</v>
+        <v>4842544.921205585</v>
       </c>
       <c r="K69">
-        <v>1864.408057869694</v>
+        <v>3987242.16156124</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2866,28 +2863,28 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>101.0469855789883</v>
+        <v>1116447.789664724</v>
       </c>
       <c r="G70">
-        <v>25.56672122278977</v>
+        <v>4841256.852560787</v>
       </c>
       <c r="H70">
-        <v>1568.406981817468</v>
+        <v>3985840.350413536</v>
       </c>
       <c r="I70">
-        <v>-1117.356792168177</v>
+        <v>1115391.772149841</v>
       </c>
       <c r="J70">
-        <v>882.0192992885434</v>
+        <v>4842496.269589532</v>
       </c>
       <c r="K70">
-        <v>1923.89207874629</v>
+        <v>3987333.876239426</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2901,28 +2898,28 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>95.30622392898181</v>
+        <v>1116442.856100616</v>
       </c>
       <c r="G71">
-        <v>38.71766863927947</v>
+        <v>4841273.365380635</v>
       </c>
       <c r="H71">
-        <v>1605.907989684394</v>
+        <v>3985875.43482758</v>
       </c>
       <c r="I71">
-        <v>-1068.243398399709</v>
+        <v>1115434.426734294</v>
       </c>
       <c r="J71">
-        <v>848.2366229750997</v>
+        <v>4842447.617973479</v>
       </c>
       <c r="K71">
-        <v>1973.551035188626</v>
+        <v>3987410.442267446</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2936,28 +2933,28 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>90.44136036924678</v>
+        <v>1116438.675276239</v>
       </c>
       <c r="G72">
-        <v>51.86861605576921</v>
+        <v>4841289.878200482</v>
       </c>
       <c r="H72">
-        <v>1639.478938011058</v>
+        <v>3985906.842438146</v>
       </c>
       <c r="I72">
-        <v>-1017.920632493186</v>
+        <v>1115478.131648647</v>
       </c>
       <c r="J72">
-        <v>814.4539466616562</v>
+        <v>4842398.966357427</v>
       </c>
       <c r="K72">
-        <v>2013.384927196702</v>
+        <v>3987471.859645299</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2971,28 +2968,28 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>86.25075503040591</v>
+        <v>1116435.073903921</v>
       </c>
       <c r="G73">
-        <v>65.01956347225892</v>
+        <v>4841306.39102033</v>
       </c>
       <c r="H73">
-        <v>1669.865978069251</v>
+        <v>3985935.271313945</v>
       </c>
       <c r="I73">
-        <v>-966.3587147723105</v>
+        <v>1115522.912756309</v>
       </c>
       <c r="J73">
-        <v>780.6712703482128</v>
+        <v>4842350.314741373</v>
       </c>
       <c r="K73">
-        <v>2043.393754770517</v>
+        <v>3987518.128372986</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3006,28 +3003,28 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>82.59214003375182</v>
+        <v>1116431.929719798</v>
       </c>
       <c r="G74">
-        <v>78.17051088874862</v>
+        <v>4841322.903840177</v>
       </c>
       <c r="H74">
-        <v>1697.621069504871</v>
+        <v>3985961.237845917</v>
       </c>
       <c r="I74">
-        <v>-913.5271322636531</v>
+        <v>1115568.796557548</v>
       </c>
       <c r="J74">
-        <v>746.8885940347693</v>
+        <v>4842301.66312532</v>
       </c>
       <c r="K74">
-        <v>2063.577517910071</v>
+        <v>3987549.248450507</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3041,28 +3038,28 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>79.36192878427046</v>
+        <v>1116429.153702389</v>
       </c>
       <c r="G75">
-        <v>91.32145830523837</v>
+        <v>4841339.416660024</v>
       </c>
       <c r="H75">
-        <v>1723.164020178275</v>
+        <v>3985985.134789181</v>
       </c>
       <c r="I75">
-        <v>-859.3946206398845</v>
+        <v>1115615.810205181</v>
       </c>
       <c r="J75">
-        <v>713.1059177213259</v>
+        <v>4842253.011509268</v>
       </c>
       <c r="K75">
-        <v>2073.936216615366</v>
+        <v>3987565.219877862</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3076,28 +3073,28 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>76.48268992408975</v>
+        <v>1116426.679307811</v>
       </c>
       <c r="G76">
-        <v>104.4724057217281</v>
+        <v>4841355.929479871</v>
       </c>
       <c r="H76">
-        <v>1746.821572708374</v>
+        <v>3986007.26783081</v>
       </c>
       <c r="I76">
-        <v>-803.929145718378</v>
+        <v>1115663.981520636</v>
       </c>
       <c r="J76">
-        <v>679.3232414078824</v>
+        <v>4842204.359893215</v>
       </c>
       <c r="K76">
-        <v>2074.469850886399</v>
+        <v>3987566.04265505</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3111,28 +3108,28 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>73.8952390929054</v>
+        <v>1116424.455673504</v>
       </c>
       <c r="G77">
-        <v>117.6233531382178</v>
+        <v>4841372.442299719</v>
       </c>
       <c r="H77">
-        <v>1768.85302992751</v>
+        <v>3986027.879563962</v>
       </c>
       <c r="I77">
-        <v>-747.097884504231</v>
+        <v>1115713.339010416</v>
       </c>
       <c r="J77">
-        <v>645.5405650944389</v>
+        <v>4842155.708277161</v>
       </c>
       <c r="K77">
-        <v>2065.178420723172</v>
+        <v>3987551.716782072</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3146,28 +3143,28 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>71.5534655927581</v>
+        <v>1116422.443172308</v>
       </c>
       <c r="G78">
-        <v>130.7743005547075</v>
+        <v>4841388.955119566</v>
       </c>
       <c r="H78">
-        <v>1789.467625607735</v>
+        <v>3986047.165739223</v>
       </c>
       <c r="I78">
-        <v>-688.8672057664867</v>
+        <v>1115763.911882975</v>
       </c>
       <c r="J78">
-        <v>611.7578887809955</v>
+        <v>4842107.056661109</v>
       </c>
       <c r="K78">
-        <v>2046.061926125685</v>
+        <v>3987522.242258927</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3181,28 +3178,28 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>69.42084356143108</v>
+        <v>1116420.610414191</v>
       </c>
       <c r="G79">
-        <v>143.9252479711973</v>
+        <v>4841405.467939413</v>
       </c>
       <c r="H79">
-        <v>1808.836639142976</v>
+        <v>3986065.286598612</v>
       </c>
       <c r="I79">
-        <v>-629.2026501360677</v>
+        <v>1115815.730065993</v>
       </c>
       <c r="J79">
-        <v>577.9752124675518</v>
+        <v>4842058.405045056</v>
       </c>
       <c r="K79">
-        <v>2017.120367093937</v>
+        <v>3987477.619085616</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3216,28 +3213,28 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>67.46801629557778</v>
+        <v>1116418.932170241</v>
       </c>
       <c r="G80">
-        <v>157.0761953876869</v>
+        <v>4841421.98075926</v>
       </c>
       <c r="H80">
-        <v>1827.10205422074</v>
+        <v>3986082.374976277</v>
       </c>
       <c r="I80">
-        <v>-568.0689097136346</v>
+        <v>1115868.824224097</v>
       </c>
       <c r="J80">
-        <v>544.1925361541083</v>
+        <v>4842009.753429002</v>
       </c>
       <c r="K80">
-        <v>1978.353743627929</v>
+        <v>3987417.847262139</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3251,28 +3248,28 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>65.67108460899571</v>
+        <v>1116417.38790169</v>
       </c>
       <c r="G81">
-        <v>170.2271428041767</v>
+        <v>4841438.493579107</v>
       </c>
       <c r="H81">
-        <v>1844.382880988909</v>
+        <v>3986098.542213262</v>
       </c>
       <c r="I81">
-        <v>-505.4298071753093</v>
+        <v>1115923.225776999</v>
       </c>
       <c r="J81">
-        <v>510.409859840665</v>
+        <v>4841961.101812949</v>
       </c>
       <c r="K81">
-        <v>1929.762055727661</v>
+        <v>3987342.926788495</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3286,28 +3283,28 @@
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>64.01036912220894</v>
+        <v>1116415.960696239</v>
       </c>
       <c r="G82">
-        <v>183.3780902206664</v>
+        <v>4841455.006398955</v>
       </c>
       <c r="H82">
-        <v>1860.779859726184</v>
+        <v>3986113.882558064</v>
       </c>
       <c r="I82">
-        <v>-441.2482743638946</v>
+        <v>1115978.966918092</v>
       </c>
       <c r="J82">
-        <v>476.6271835272214</v>
+        <v>4841912.450196897</v>
       </c>
       <c r="K82">
-        <v>1871.345303393132</v>
+        <v>3987252.857664686</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3321,28 +3318,28 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>62.46949893918294</v>
+        <v>1116414.636484873</v>
       </c>
       <c r="G83">
-        <v>196.5290376371561</v>
+        <v>4841471.519218802</v>
       </c>
       <c r="H83">
-        <v>1876.379019100296</v>
+        <v>3986128.476495597</v>
       </c>
       <c r="I83">
-        <v>-375.4863303529265</v>
+        <v>1116036.080633504</v>
       </c>
       <c r="J83">
-        <v>442.8445072137779</v>
+        <v>4841863.798580844</v>
       </c>
       <c r="K83">
-        <v>1803.103486624342</v>
+        <v>3987147.639890709</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3356,28 +3353,28 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>61.03472971049481</v>
+        <v>1116413.403455808</v>
       </c>
       <c r="G84">
-        <v>209.6799850536458</v>
+        <v>4841488.03203865</v>
       </c>
       <c r="H84">
-        <v>1891.254408236164</v>
+        <v>3986142.393303202</v>
       </c>
       <c r="I84">
-        <v>-308.1050589705677</v>
+        <v>1116094.600721614</v>
       </c>
       <c r="J84">
-        <v>409.0618309003345</v>
+        <v>4841815.14696479</v>
       </c>
       <c r="K84">
-        <v>1725.036605421293</v>
+        <v>3987027.273466567</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3391,28 +3388,28 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>59.69442587174142</v>
+        <v>1116412.251609534</v>
       </c>
       <c r="G85">
-        <v>222.8309324701355</v>
+        <v>4841504.544858498</v>
       </c>
       <c r="H85">
-        <v>1905.4702226135</v>
+        <v>3986155.693039555</v>
       </c>
       <c r="I85">
-        <v>-239.0645857700513</v>
+        <v>1116154.561813056</v>
       </c>
       <c r="J85">
-        <v>375.2791545868909</v>
+        <v>4841766.495348738</v>
       </c>
       <c r="K85">
-        <v>1637.144659783982</v>
+        <v>3986891.758392258</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3426,28 +3423,28 @@
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>58.4386623289688</v>
+        <v>1116411.172416507</v>
       </c>
       <c r="G86">
-        <v>235.9818798866252</v>
+        <v>4841521.057678344</v>
       </c>
       <c r="H86">
-        <v>1919.082478350648</v>
+        <v>3986168.428111051</v>
       </c>
       <c r="I86">
-        <v>-168.3240544330424</v>
+        <v>1116215.999391211</v>
       </c>
       <c r="J86">
-        <v>341.4964782734476</v>
+        <v>4841717.843732686</v>
       </c>
       <c r="K86">
-        <v>1539.427649712411</v>
+        <v>3986741.094667782</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3461,28 +3458,28 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>57.25891435103996</v>
+        <v>1116410.158550641</v>
       </c>
       <c r="G87">
-        <v>249.132827303115</v>
+        <v>4841537.570498192</v>
       </c>
       <c r="H87">
-        <v>1932.140345323845</v>
+        <v>3986180.644519022</v>
       </c>
       <c r="I87">
-        <v>-95.84160259195517</v>
+        <v>1116278.949813208</v>
       </c>
       <c r="J87">
-        <v>307.713801960004</v>
+        <v>4841669.192116633</v>
       </c>
       <c r="K87">
-        <v>1431.88557520658</v>
+        <v>3986575.28229314</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3496,28 +3493,28 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>56.14781348751929</v>
+        <v>1116409.20367955</v>
       </c>
       <c r="G88">
-        <v>262.2837747196047</v>
+        <v>4841554.083318038</v>
       </c>
       <c r="H88">
-        <v>1944.687219287382</v>
+        <v>3986192.382862766</v>
       </c>
       <c r="I88">
-        <v>-21.57433705691441</v>
+        <v>1116343.450331433</v>
       </c>
       <c r="J88">
-        <v>273.9311256465605</v>
+        <v>4841620.540500579</v>
       </c>
       <c r="K88">
-        <v>1314.518436266488</v>
+        <v>3986394.321268332</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3531,28 +3528,28 @@
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>55.09895352439351</v>
+        <v>1116408.302297785</v>
       </c>
       <c r="G89">
-        <v>275.4347221360944</v>
+        <v>4841570.596137886</v>
       </c>
       <c r="H89">
-        <v>1956.761592009423</v>
+        <v>3986203.679153612</v>
       </c>
       <c r="I89">
-        <v>54.52169156729548</v>
+        <v>1116409.539115579</v>
       </c>
       <c r="J89">
-        <v>240.1484493331171</v>
+        <v>4841571.888884527</v>
       </c>
       <c r="K89">
-        <v>1187.326232892136</v>
+        <v>3986198.211593358</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3566,28 +3563,28 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>54.10673479474181</v>
+        <v>1116407.449593038</v>
       </c>
       <c r="G90">
-        <v>288.5856695525841</v>
+        <v>4841587.108957734</v>
       </c>
       <c r="H90">
-        <v>1968.397763434113</v>
+        <v>3986214.565481191</v>
       </c>
       <c r="I90">
-        <v>132.4915148893138</v>
+        <v>1116477.255275234</v>
       </c>
       <c r="J90">
-        <v>206.3657730196735</v>
+        <v>4841523.237268474</v>
       </c>
       <c r="K90">
-        <v>1050.308965083524</v>
+        <v>3985986.953268217</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3601,28 +3598,28 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>53.16623819860163</v>
+        <v>1116406.641337874</v>
       </c>
       <c r="G91">
-        <v>301.7366169690739</v>
+        <v>4841603.62177758</v>
       </c>
       <c r="H91">
-        <v>1979.626429083753</v>
+        <v>3986225.07056298</v>
       </c>
       <c r="I91">
-        <v>212.3812733797153</v>
+        <v>1116546.638883024</v>
       </c>
       <c r="J91">
-        <v>172.5830967062301</v>
+        <v>4841474.585652421</v>
       </c>
       <c r="K91">
-        <v>903.4666328406512</v>
+        <v>3985760.54629291</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3636,28 +3633,28 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>52.27312245887794</v>
+        <v>1116405.873801434</v>
       </c>
       <c r="G92">
-        <v>314.8875643855636</v>
+        <v>4841620.134597428</v>
       </c>
       <c r="H92">
-        <v>1990.475168042885</v>
+        <v>3986235.220200846</v>
       </c>
       <c r="I92">
-        <v>294.238243675712</v>
+        <v>1116617.730998323</v>
       </c>
       <c r="J92">
-        <v>138.8004203927866</v>
+        <v>4841425.934036368</v>
       </c>
       <c r="K92">
-        <v>746.7992361635173</v>
+        <v>3985518.990667437</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3671,28 +3668,28 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>51.4235397142423</v>
+        <v>1116405.143676898</v>
       </c>
       <c r="G93">
-        <v>328.0385118020533</v>
+        <v>4841636.647417275</v>
       </c>
       <c r="H93">
-        <v>2000.968851056781</v>
+        <v>3986245.037662847</v>
       </c>
       <c r="I93">
-        <v>378.1108665582165</v>
+        <v>1116690.573691559</v>
       </c>
       <c r="J93">
-        <v>105.017744079343</v>
+        <v>4841377.282420315</v>
       </c>
       <c r="K93">
-        <v>580.3067750521234</v>
+        <v>3985262.286391797</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3706,28 +3703,28 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>50.61406570399917</v>
+        <v>1116404.448021484</v>
       </c>
       <c r="G94">
-        <v>341.189459218543</v>
+        <v>4841653.160237122</v>
       </c>
       <c r="H94">
-        <v>2011.129983941318</v>
+        <v>3986254.544004504</v>
       </c>
       <c r="I94">
-        <v>464.0487756178032</v>
+        <v>1116765.2100691</v>
       </c>
       <c r="J94">
-        <v>71.23506776589966</v>
+        <v>4841328.630804262</v>
       </c>
       <c r="K94">
-        <v>403.9892495064694</v>
+        <v>3984990.433465991</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3741,28 +3738,28 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>49.8416416553076</v>
+        <v>1116403.784206507</v>
       </c>
       <c r="G95">
-        <v>354.3404066350327</v>
+        <v>4841669.67305697</v>
       </c>
       <c r="H95">
-        <v>2020.978998231794</v>
+        <v>3986263.75834073</v>
       </c>
       <c r="I95">
-        <v>552.1028266265575</v>
+        <v>1116841.684298775</v>
       </c>
       <c r="J95">
-        <v>37.45239145245611</v>
+        <v>4841279.979188209</v>
       </c>
       <c r="K95">
-        <v>217.8466595265544</v>
+        <v>3984703.431890018</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3776,28 +3773,28 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>49.10352562371239</v>
+        <v>1116403.149875562</v>
       </c>
       <c r="G96">
-        <v>367.4913540515225</v>
+        <v>4841686.185876817</v>
       </c>
       <c r="H96">
-        <v>2030.534498508767</v>
+        <v>3986272.698077212</v>
       </c>
       <c r="I96">
-        <v>642.3251276331602</v>
+        <v>1116920.041636001</v>
       </c>
       <c r="J96">
-        <v>3.66971513901256</v>
+        <v>4841231.327572156</v>
       </c>
       <c r="K96">
-        <v>21.87900511237914</v>
+        <v>3984401.28166388</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3811,28 +3808,28 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>48.39725152223677</v>
+        <v>1116402.542909314</v>
       </c>
       <c r="G97">
-        <v>380.6423014680121</v>
+        <v>4841702.698696665</v>
       </c>
       <c r="H97">
-        <v>2039.813473926189</v>
+        <v>3986281.379108308</v>
       </c>
       <c r="I97">
-        <v>734.7690697990546</v>
+        <v>1117000.328450568</v>
       </c>
       <c r="J97">
-        <v>-30.11296117443083</v>
+        <v>4841182.675956103</v>
       </c>
       <c r="K97">
-        <v>-183.913713736056</v>
+        <v>3984083.982787575</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3846,28 +3843,28 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>47.72059444371862</v>
+        <v>1116401.961395697</v>
       </c>
       <c r="G98">
-        <v>393.7932488845018</v>
+        <v>4841719.211516512</v>
       </c>
       <c r="H98">
-        <v>2048.831479984891</v>
+        <v>3986289.815987112</v>
       </c>
       <c r="I98">
-        <v>829.4893589939174</v>
+        <v>1117082.592254082</v>
       </c>
       <c r="J98">
-        <v>-63.89563748787437</v>
+        <v>4841134.02434005</v>
       </c>
       <c r="K98">
-        <v>-399.5314970187522</v>
+        <v>3983751.535261103</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3881,28 +3878,28 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>47.07154116525085</v>
+        <v>1116401.403604561</v>
       </c>
       <c r="G99">
-        <v>406.9441963009916</v>
+        <v>4841735.724336359</v>
       </c>
       <c r="H99">
-        <v>2057.602795436829</v>
+        <v>3986298.022072243</v>
       </c>
       <c r="I99">
-        <v>926.5420481691361</v>
+        <v>1117166.881728075</v>
       </c>
       <c r="J99">
-        <v>-97.67831380131793</v>
+        <v>4841085.372723997</v>
       </c>
       <c r="K99">
-        <v>-624.9743447357093</v>
+        <v>3983403.939084465</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3916,28 +3913,28 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>46.44826494392417</v>
+        <v>1116400.86796602</v>
       </c>
       <c r="G100">
-        <v>420.0951437174813</v>
+        <v>4841752.237156207</v>
       </c>
       <c r="H100">
-        <v>2066.140558294549</v>
+        <v>3986306.009655088</v>
       </c>
       <c r="I100">
-        <v>1025.984570528458</v>
+        <v>1117253.246752821</v>
       </c>
       <c r="J100">
-        <v>-131.4609901147615</v>
+        <v>4841036.721107944</v>
       </c>
       <c r="K100">
-        <v>-860.2422568869265</v>
+        <v>3983041.194257661</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3951,28 +3948,28 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>45.84910388516833</v>
+        <v>1116400.353051855</v>
       </c>
       <c r="G101">
-        <v>433.246091133971</v>
+        <v>4841768.749976054</v>
       </c>
       <c r="H101">
-        <v>2074.456884198464</v>
+        <v>3986313.790070547</v>
       </c>
       <c r="I101">
-        <v>1127.875773515434</v>
+        <v>1117341.738436847</v>
       </c>
       <c r="J101">
-        <v>-165.2436664282047</v>
+        <v>4840988.069491891</v>
       </c>
       <c r="K101">
-        <v>-1105.335233472402</v>
+        <v>3982663.30078069</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3986,28 +3983,28 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>45.2725423003624</v>
+        <v>1116399.857559494</v>
       </c>
       <c r="G102">
-        <v>446.3970385504608</v>
+        <v>4841785.262795901</v>
       </c>
       <c r="H102">
-        <v>2082.562969818755</v>
+        <v>3986321.373793768</v>
       </c>
       <c r="I102">
-        <v>1232.275953637777</v>
+        <v>1117432.409147181</v>
       </c>
       <c r="J102">
-        <v>-199.0263427416483</v>
+        <v>4840939.417875838</v>
       </c>
       <c r="K102">
-        <v>-1360.25327449214</v>
+        <v>3982270.258653554</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4021,28 +4018,28 @@
         <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>44.71719457757006</v>
+        <v>1116399.380298155</v>
       </c>
       <c r="G103">
-        <v>459.5479859669505</v>
+        <v>4841801.775615748</v>
       </c>
       <c r="H103">
-        <v>2090.469183506534</v>
+        <v>3986328.770524958</v>
       </c>
       <c r="I103">
-        <v>1339.246892149228</v>
+        <v>1117525.312540342</v>
       </c>
       <c r="J103">
-        <v>-232.8090190550918</v>
+        <v>4840890.766259785</v>
       </c>
       <c r="K103">
-        <v>-1624.996379946139</v>
+        <v>3981862.06787625</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4056,28 +4053,28 @@
         <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>44.18179117465842</v>
+        <v>1116398.920176803</v>
       </c>
       <c r="G104">
-        <v>472.6989333834401</v>
+        <v>4841818.288435596</v>
       </c>
       <c r="H104">
-        <v>2098.185145035716</v>
+        <v>3986335.989263985</v>
       </c>
       <c r="I104">
-        <v>1448.851891610065</v>
+        <v>1117620.50359409</v>
       </c>
       <c r="J104">
-        <v>-266.5916953685353</v>
+        <v>4840842.114643732</v>
       </c>
       <c r="K104">
-        <v>-1899.564549834398</v>
+        <v>3981438.728448781</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4091,28 +4088,28 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>43.66516641251202</v>
+        <v>1116398.476193663</v>
       </c>
       <c r="G105">
-        <v>485.8498807999299</v>
+        <v>4841834.801255442</v>
       </c>
       <c r="H105">
-        <v>2105.719795974107</v>
+        <v>3986343.038376215</v>
       </c>
       <c r="I105">
-        <v>1561.155813347875</v>
+        <v>1117718.038639961</v>
       </c>
       <c r="J105">
-        <v>-300.3743716819789</v>
+        <v>4840793.463027679</v>
       </c>
       <c r="K105">
-        <v>-2183.957784156918</v>
+        <v>3981000.240371144</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4126,28 +4123,28 @@
         <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>43.16624780122204</v>
+        <v>1116398.047427045</v>
       </c>
       <c r="G106">
-        <v>499.0008282164196</v>
+        <v>4841851.31407529</v>
       </c>
       <c r="H106">
-        <v>2113.081461974832</v>
+        <v>3986349.92565079</v>
       </c>
       <c r="I106">
-        <v>1676.225115840763</v>
+        <v>1117817.975396607</v>
       </c>
       <c r="J106">
-        <v>-334.1570479954221</v>
+        <v>4840744.811411627</v>
       </c>
       <c r="K106">
-        <v>-2478.176082913695</v>
+        <v>3980546.603643342</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4161,28 +4158,28 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>42.68404667684271</v>
+        <v>1116397.633027301</v>
       </c>
       <c r="G107">
-        <v>512.1517756329093</v>
+        <v>4841867.826895138</v>
       </c>
       <c r="H107">
-        <v>2120.27790807637</v>
+        <v>3986356.658352364</v>
       </c>
       <c r="I107">
-        <v>1794.127894045723</v>
+        <v>1117920.373003946</v>
       </c>
       <c r="J107">
-        <v>-367.9397243088657</v>
+        <v>4840696.159795573</v>
       </c>
       <c r="K107">
-        <v>-2782.219446104736</v>
+        <v>3980077.818265374</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4187,34 @@
         <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G108">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H108">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I108">
-        <v>-652.7573665609251</v>
+        <v>1114860.544983412</v>
       </c>
       <c r="J108">
-        <v>1713.911445863173</v>
+        <v>4843215.129624063</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984363.540647102</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4222,34 @@
         <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G109">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H109">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I109">
-        <v>-639.8701980236139</v>
+        <v>1114890.158958295</v>
       </c>
       <c r="J109">
-        <v>1672.219188895226</v>
+        <v>4843166.478117647</v>
       </c>
       <c r="K109">
-        <v>286.4193990090112</v>
+        <v>3984667.336122084</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4257,34 @@
         <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G110">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H110">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I110">
-        <v>-626.665694817049</v>
+        <v>1114920.502150065</v>
       </c>
       <c r="J110">
-        <v>1630.52693192728</v>
+        <v>4843117.826611229</v>
       </c>
       <c r="K110">
-        <v>558.5566138840409</v>
+        <v>3984955.982962135</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4292,34 @@
         <v>36</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G111">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H111">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I111">
-        <v>-613.1360428669426</v>
+        <v>1114951.592515017</v>
       </c>
       <c r="J111">
-        <v>1588.834674959334</v>
+        <v>4843069.175104814</v>
       </c>
       <c r="K111">
-        <v>816.4116446250911</v>
+        <v>3985229.481167255</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4327,34 @@
         <v>36</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G112">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H112">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I112">
-        <v>-599.2732356846166</v>
+        <v>1114983.448451604</v>
       </c>
       <c r="J112">
-        <v>1547.142417991387</v>
+        <v>4843020.523598397</v>
       </c>
       <c r="K112">
-        <v>1059.98449123216</v>
+        <v>3985487.830737444</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4362,34 @@
         <v>36</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G113">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H113">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I113">
-        <v>-585.0690696289741</v>
+        <v>1115016.088811322</v>
       </c>
       <c r="J113">
-        <v>1505.450161023441</v>
+        <v>4842971.872091981</v>
       </c>
       <c r="K113">
-        <v>1289.27515370525</v>
+        <v>3985731.031672702</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4397,34 @@
         <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G114">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H114">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I114">
-        <v>-570.5151390518049</v>
+        <v>1115049.532909869</v>
       </c>
       <c r="J114">
-        <v>1463.757904055495</v>
+        <v>4842923.220585563</v>
       </c>
       <c r="K114">
-        <v>1504.283632044359</v>
+        <v>3985959.083973029</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4432,34 @@
         <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G115">
-        <v>-102.6471948449732</v>
+        <v>4841125.018854129</v>
       </c>
       <c r="H115">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I115">
-        <v>-555.6028313235436</v>
+        <v>1115083.800538576</v>
       </c>
       <c r="J115">
-        <v>1422.065647087548</v>
+        <v>4842874.569079147</v>
       </c>
       <c r="K115">
-        <v>1705.009926249488</v>
+        <v>3986171.987638425</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4467,34 @@
         <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>236.1726868225876</v>
+        <v>1116580.305290762</v>
       </c>
       <c r="G116">
-        <v>-85.69725364762066</v>
+        <v>4841141.531674894</v>
       </c>
       <c r="H116">
-        <v>945.7478632812563</v>
+        <v>3985222.183615793</v>
       </c>
       <c r="I116">
-        <v>-540.3233217365453</v>
+        <v>1115118.911976113</v>
       </c>
       <c r="J116">
-        <v>1380.373390119602</v>
+        <v>4842825.917572731</v>
       </c>
       <c r="K116">
-        <v>1891.454036320637</v>
+        <v>3986369.742668889</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4502,34 @@
         <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>183.2975560436036</v>
+        <v>1116531.624648453</v>
       </c>
       <c r="G117">
-        <v>-68.7473124502681</v>
+        <v>4841158.044495658</v>
       </c>
       <c r="H117">
-        <v>1165.155003572348</v>
+        <v>3985421.437715341</v>
       </c>
       <c r="I117">
-        <v>-524.6675682828582</v>
+        <v>1115154.888000498</v>
       </c>
       <c r="J117">
-        <v>1338.681133151656</v>
+        <v>4842777.266066315</v>
       </c>
       <c r="K117">
-        <v>2063.615962257804</v>
+        <v>3986552.349064422</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4537,34 @@
         <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>152.2360692138433</v>
+        <v>1116503.027213181</v>
       </c>
       <c r="G118">
-        <v>-51.79737125291556</v>
+        <v>4841174.557316422</v>
       </c>
       <c r="H118">
-        <v>1295.845117236869</v>
+        <v>3985540.123647274</v>
       </c>
       <c r="I118">
-        <v>-508.6263063034032</v>
+        <v>1115191.749901386</v>
       </c>
       <c r="J118">
-        <v>1296.988876183709</v>
+        <v>4842728.614559897</v>
       </c>
       <c r="K118">
-        <v>2221.495704060992</v>
+        <v>3986719.806825025</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4572,34 @@
         <v>36</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>132.627779940929</v>
+        <v>1116484.974414023</v>
       </c>
       <c r="G119">
-        <v>-34.84743005556301</v>
+        <v>4841191.070137187</v>
       </c>
       <c r="H119">
-        <v>1389.240508465799</v>
+        <v>3985624.94046115</v>
       </c>
       <c r="I119">
-        <v>-492.1900430053942</v>
+        <v>1115229.519492672</v>
       </c>
       <c r="J119">
-        <v>1255.296619215763</v>
+        <v>4842679.963053481</v>
       </c>
       <c r="K119">
-        <v>2365.0932617302</v>
+        <v>3986872.115950696</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4607,34 @@
         <v>36</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>118.9530385967176</v>
+        <v>1116472.384465171</v>
       </c>
       <c r="G120">
-        <v>-17.89748885821046</v>
+        <v>4841207.582957951</v>
       </c>
       <c r="H120">
-        <v>1461.967449579149</v>
+        <v>3985690.987268675</v>
       </c>
       <c r="I120">
-        <v>-475.349051844757</v>
+        <v>1115268.219125395</v>
       </c>
       <c r="J120">
-        <v>1213.604362247817</v>
+        <v>4842631.311547064</v>
       </c>
       <c r="K120">
-        <v>2494.408635265427</v>
+        <v>3987009.276441437</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4642,34 @@
         <v>36</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>108.7512720421567</v>
+        <v>1116462.991986302</v>
       </c>
       <c r="G121">
-        <v>-0.9475476608579222</v>
+        <v>4841224.095778716</v>
       </c>
       <c r="H121">
-        <v>1521.536455566742</v>
+        <v>3985745.084727096</v>
       </c>
       <c r="I121">
-        <v>-458.0933667702168</v>
+        <v>1115307.87170097</v>
       </c>
       <c r="J121">
-        <v>1171.912105279871</v>
+        <v>4842582.660040649</v>
       </c>
       <c r="K121">
-        <v>2609.441824666674</v>
+        <v>3987131.288297246</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4677,34 @@
         <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>100.7749152309536</v>
+        <v>1116455.648379447</v>
       </c>
       <c r="G122">
-        <v>16.00239353649463</v>
+        <v>4841240.608599479</v>
       </c>
       <c r="H122">
-        <v>1571.98705531155</v>
+        <v>3985790.901325455</v>
       </c>
       <c r="I122">
-        <v>-440.4127763256553</v>
+        <v>1115348.50068474</v>
       </c>
       <c r="J122">
-        <v>1130.219848311924</v>
+        <v>4842534.008534231</v>
       </c>
       <c r="K122">
-        <v>2710.19282993394</v>
+        <v>3987238.151518124</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4712,34 @@
         <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>94.32146179310716</v>
+        <v>1116449.706866795</v>
       </c>
       <c r="G123">
-        <v>32.95233473384718</v>
+        <v>4841257.121420244</v>
       </c>
       <c r="H123">
-        <v>1615.743762166611</v>
+        <v>3985830.638880085</v>
       </c>
       <c r="I123">
-        <v>-422.2968176072413</v>
+        <v>1115390.130119858</v>
       </c>
       <c r="J123">
-        <v>1088.527591343978</v>
+        <v>4842485.357027815</v>
       </c>
       <c r="K123">
-        <v>2796.661651067226</v>
+        <v>3987329.866104071</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4747,34 @@
         <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>88.96279594541443</v>
+        <v>1116444.773294215</v>
       </c>
       <c r="G124">
-        <v>49.90227593119972</v>
+        <v>4841273.634241009</v>
       </c>
       <c r="H124">
-        <v>1654.376604431654</v>
+        <v>3985865.723208645</v>
       </c>
       <c r="I124">
-        <v>-403.734770071763</v>
+        <v>1115432.784641516</v>
       </c>
       <c r="J124">
-        <v>1046.835334376032</v>
+        <v>4842436.705521398</v>
       </c>
       <c r="K124">
-        <v>2868.848288066532</v>
+        <v>3987406.432055087</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4782,34 @@
         <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>84.42172982900331</v>
+        <v>1116440.592462659</v>
       </c>
       <c r="G125">
-        <v>66.85221712855228</v>
+        <v>4841290.147061773</v>
       </c>
       <c r="H125">
-        <v>1688.960772302399</v>
+        <v>3985897.130742688</v>
       </c>
       <c r="I125">
-        <v>-384.7156491924939</v>
+        <v>1115476.489491529</v>
       </c>
       <c r="J125">
-        <v>1005.143077408085</v>
+        <v>4842388.054014983</v>
       </c>
       <c r="K125">
-        <v>2926.752740931858</v>
+        <v>3987467.849371172</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4817,34 @@
         <v>36</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>80.51004439778882</v>
+        <v>1116436.991084156</v>
       </c>
       <c r="G126">
-        <v>83.80215832590481</v>
+        <v>4841306.659882537</v>
       </c>
       <c r="H126">
-        <v>1720.264936970066</v>
+        <v>3985925.559549219</v>
       </c>
       <c r="I126">
-        <v>-365.2281999588432</v>
+        <v>1115521.270533266</v>
       </c>
       <c r="J126">
-        <v>963.450820440139</v>
+        <v>4842339.402508565</v>
       </c>
       <c r="K126">
-        <v>2970.375009663203</v>
+        <v>3987514.118052326</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4852,34 @@
         <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>77.09494089276794</v>
+        <v>1116433.846894634</v>
       </c>
       <c r="G127">
-        <v>100.7520995232574</v>
+        <v>4841323.172703302</v>
       </c>
       <c r="H127">
-        <v>1748.857717017182</v>
+        <v>3985951.526017923</v>
       </c>
       <c r="I127">
-        <v>-345.2608902159385</v>
+        <v>1115567.154266958</v>
       </c>
       <c r="J127">
-        <v>921.7585634721926</v>
+        <v>4842290.751002149</v>
       </c>
       <c r="K127">
-        <v>2999.715094260568</v>
+        <v>3987545.238098549</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4887,34 @@
         <v>36</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>74.0797272750054</v>
+        <v>1116431.070872458</v>
       </c>
       <c r="G128">
-        <v>117.7020407206099</v>
+        <v>4841339.685524066</v>
       </c>
       <c r="H128">
-        <v>1775.17159070962</v>
+        <v>3985975.422902962</v>
       </c>
       <c r="I128">
-        <v>-324.8019038402027</v>
+        <v>1115614.167845379</v>
       </c>
       <c r="J128">
-        <v>880.0663065042464</v>
+        <v>4842242.099495732</v>
       </c>
       <c r="K128">
-        <v>3014.772994723952</v>
+        <v>3987561.209509841</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4922,34 @@
         <v>36</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>71.39212589246364</v>
+        <v>1116428.596473631</v>
       </c>
       <c r="G129">
-        <v>134.6519819179624</v>
+        <v>4841356.19834483</v>
       </c>
       <c r="H129">
-        <v>1799.543162228857</v>
+        <v>3985997.555890664</v>
       </c>
       <c r="I129">
-        <v>-303.8391337468869</v>
+        <v>1115662.339089918</v>
       </c>
       <c r="J129">
-        <v>838.3740495363</v>
+        <v>4842193.447989316</v>
       </c>
       <c r="K129">
-        <v>3015.548711053357</v>
+        <v>3987562.032286202</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4957,34 @@
         <v>36</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>68.97689160005299</v>
+        <v>1116426.372835506</v>
       </c>
       <c r="G130">
-        <v>151.601923115315</v>
+        <v>4841372.711165595</v>
       </c>
       <c r="H130">
-        <v>1822.239560539969</v>
+        <v>3986018.167573594</v>
       </c>
       <c r="I130">
-        <v>-282.3601747254181</v>
+        <v>1115711.696507036</v>
       </c>
       <c r="J130">
-        <v>796.6817925683537</v>
+        <v>4842144.796482899</v>
       </c>
       <c r="K130">
-        <v>3002.04224324878</v>
+        <v>3987547.706427631</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4992,34 @@
         <v>36</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>66.79098275322654</v>
+        <v>1116424.360330853</v>
       </c>
       <c r="G131">
-        <v>168.5518643126676</v>
+        <v>4841389.223986358</v>
       </c>
       <c r="H131">
-        <v>1843.476334391431</v>
+        <v>3986037.453701865</v>
       </c>
       <c r="I131">
-        <v>-260.3523160983253</v>
+        <v>1115762.269305144</v>
       </c>
       <c r="J131">
-        <v>754.9895356004074</v>
+        <v>4842096.144976483</v>
       </c>
       <c r="K131">
-        <v>2974.253591310224</v>
+        <v>3987518.231934129</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5027,34 @@
         <v>36</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>64.80030459202885</v>
+        <v>1116422.527569589</v>
       </c>
       <c r="G132">
-        <v>185.5018055100201</v>
+        <v>4841405.736807124</v>
       </c>
       <c r="H132">
-        <v>1863.429932635824</v>
+        <v>3986055.574517102</v>
       </c>
       <c r="I132">
-        <v>-237.8025341993992</v>
+        <v>1115814.087411878</v>
       </c>
       <c r="J132">
-        <v>713.297278632461</v>
+        <v>4842047.493470066</v>
       </c>
       <c r="K132">
-        <v>2932.182755237688</v>
+        <v>3987473.608805696</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5062,34 @@
         <v>36</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>62.97745434776565</v>
+        <v>1116420.849322757</v>
       </c>
       <c r="G133">
-        <v>202.4517467073726</v>
+        <v>4841422.249627887</v>
       </c>
       <c r="H133">
-        <v>1882.246624232722</v>
+        <v>3986072.662853132</v>
       </c>
       <c r="I133">
-        <v>-214.697484666631</v>
+        <v>1115867.181491819</v>
       </c>
       <c r="J133">
-        <v>671.6050216645147</v>
+        <v>4841998.841963649</v>
       </c>
       <c r="K133">
-        <v>2875.82973503117</v>
+        <v>3987413.837042333</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5097,34 @@
         <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>61.3001235253802</v>
+        <v>1116419.305051555</v>
       </c>
       <c r="G134">
-        <v>219.4016879047252</v>
+        <v>4841438.762448652</v>
       </c>
       <c r="H134">
-        <v>1900.049011227579</v>
+        <v>3986088.830050725</v>
       </c>
       <c r="I134">
-        <v>-191.0234945453743</v>
+        <v>1115921.582964633</v>
       </c>
       <c r="J134">
-        <v>629.9127646965685</v>
+        <v>4841950.190457232</v>
       </c>
       <c r="K134">
-        <v>2805.194530690673</v>
+        <v>3987338.916644038</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5132,34 @@
         <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>59.74994257303766</v>
+        <v>1116417.877843653</v>
       </c>
       <c r="G135">
-        <v>236.3516291020778</v>
+        <v>4841455.275269416</v>
       </c>
       <c r="H135">
-        <v>1916.940874385719</v>
+        <v>3986104.17035815</v>
       </c>
       <c r="I135">
-        <v>-166.766554197053</v>
+        <v>1115977.324023667</v>
       </c>
       <c r="J135">
-        <v>588.2205077286221</v>
+        <v>4841901.538950817</v>
       </c>
       <c r="K135">
-        <v>2720.277142216195</v>
+        <v>3987248.847610813</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5167,34 @@
         <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>58.31163021504243</v>
+        <v>1116416.553630012</v>
       </c>
       <c r="G136">
-        <v>253.3015702994303</v>
+        <v>4841471.788090181</v>
       </c>
       <c r="H136">
-        <v>1933.010838843896</v>
+        <v>3986118.764260124</v>
       </c>
       <c r="I136">
-        <v>-141.9123090086302</v>
+        <v>1116034.437654998</v>
       </c>
       <c r="J136">
-        <v>546.5282507606757</v>
+        <v>4841852.8874444</v>
       </c>
       <c r="K136">
-        <v>2621.077569607737</v>
+        <v>3987143.629942656</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5202,34 @@
         <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>56.97235690361993</v>
+        <v>1116415.32059883</v>
       </c>
       <c r="G137">
-        <v>270.2515114967828</v>
+        <v>4841488.300910945</v>
       </c>
       <c r="H137">
-        <v>1948.335188636211</v>
+        <v>3986132.681033821</v>
       </c>
       <c r="I137">
-        <v>-116.4460508979289</v>
+        <v>1116092.957656957</v>
       </c>
       <c r="J137">
-        <v>504.8359937927295</v>
+        <v>4841804.235937983</v>
       </c>
       <c r="K137">
-        <v>2507.595812865299</v>
+        <v>3987023.263639568</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5237,34 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>55.72126151869811</v>
+        <v>1116414.168750578</v>
       </c>
       <c r="G138">
-        <v>287.2014526941354</v>
+        <v>4841504.813731709</v>
       </c>
       <c r="H138">
-        <v>1962.980056754359</v>
+        <v>3986145.98073777</v>
       </c>
       <c r="I138">
-        <v>-90.3527096097795</v>
+        <v>1116152.918660128</v>
       </c>
       <c r="J138">
-        <v>463.1437368247831</v>
+        <v>4841755.584431566</v>
       </c>
       <c r="K138">
-        <v>2379.83187198888</v>
+        <v>3986887.748701549</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5272,34 @@
         <v>36</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>54.54907956450992</v>
+        <v>1116413.089555698</v>
       </c>
       <c r="G139">
-        <v>304.1513938914879</v>
+        <v>4841521.326552473</v>
       </c>
       <c r="H139">
-        <v>1977.003149963768</v>
+        <v>3986158.715778236</v>
       </c>
       <c r="I139">
-        <v>-63.61684379784304</v>
+        <v>1116214.356147838</v>
       </c>
       <c r="J139">
-        <v>421.451479856837</v>
+        <v>4841706.932925151</v>
       </c>
       <c r="K139">
-        <v>2237.785746978482</v>
+        <v>3986737.085128599</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5307,34 @@
         <v>36</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>53.44785370222306</v>
+        <v>1116412.075688091</v>
       </c>
       <c r="G140">
-        <v>321.1013350888405</v>
+        <v>4841537.839373238</v>
       </c>
       <c r="H140">
-        <v>1990.455122158316</v>
+        <v>3986170.932156442</v>
       </c>
       <c r="I140">
-        <v>-36.22263188683313</v>
+        <v>1116277.306477161</v>
       </c>
       <c r="J140">
-        <v>379.7592228888906</v>
+        <v>4841658.281418734</v>
       </c>
       <c r="K140">
-        <v>2081.457437834102</v>
+        <v>3986571.272920718</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5342,34 @@
         <v>36</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>52.41070591353488</v>
+        <v>1116411.12081536</v>
       </c>
       <c r="G141">
-        <v>338.0512762861931</v>
+        <v>4841554.352194002</v>
       </c>
       <c r="H141">
-        <v>2003.380678838625</v>
+        <v>3986182.670471585</v>
       </c>
       <c r="I141">
-        <v>-8.153862709727582</v>
+        <v>1116341.806900431</v>
       </c>
       <c r="J141">
-        <v>338.0669659209441</v>
+        <v>4841609.629912317</v>
       </c>
       <c r="K141">
-        <v>1910.846944555743</v>
+        <v>3986390.312077906</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5377,34 @@
         <v>36</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>51.43165637166651</v>
+        <v>1116410.219432047</v>
       </c>
       <c r="G142">
-        <v>355.0012174835456</v>
+        <v>4841570.865014766</v>
       </c>
       <c r="H142">
-        <v>2015.819473509831</v>
+        <v>3986193.966734909</v>
       </c>
       <c r="I142">
-        <v>20.60607408557013</v>
+        <v>1116407.895587285</v>
       </c>
       <c r="J142">
-        <v>296.374708952998</v>
+        <v>4841560.9784059</v>
       </c>
       <c r="K142">
-        <v>1725.954267143403</v>
+        <v>3986194.202600162</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5412,34 @@
         <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>50.50547811446268</v>
+        <v>1116409.366725836</v>
       </c>
       <c r="G143">
-        <v>371.9511586808981</v>
+        <v>4841587.377835531</v>
       </c>
       <c r="H143">
-        <v>2027.806841337764</v>
+        <v>3986204.853035962</v>
       </c>
       <c r="I143">
-        <v>50.07419786579532</v>
+        <v>1116475.611647251</v>
       </c>
       <c r="J143">
-        <v>254.6824519850516</v>
+        <v>4841512.326899484</v>
       </c>
       <c r="K143">
-        <v>1526.779405597083</v>
+        <v>3985982.944487488</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5447,34 @@
         <v>36</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>49.62757944929132</v>
+        <v>1116408.558469284</v>
       </c>
       <c r="G144">
-        <v>388.9010998782507</v>
+        <v>4841603.890656295</v>
       </c>
       <c r="H144">
-        <v>2039.374404279773</v>
+        <v>3986215.358092155</v>
       </c>
       <c r="I144">
-        <v>80.26794708393204</v>
+        <v>1116544.995152897</v>
       </c>
       <c r="J144">
-        <v>212.9901950171054</v>
+        <v>4841463.675393068</v>
       </c>
       <c r="K144">
-        <v>1313.322359916783</v>
+        <v>3985756.537739883</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5482,34 @@
         <v>36</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>48.79390804743321</v>
+        <v>1116407.790931526</v>
       </c>
       <c r="G145">
-        <v>405.8510410756032</v>
+        <v>4841620.40347706</v>
       </c>
       <c r="H145">
-        <v>2050.550573796871</v>
+        <v>3986225.507705293</v>
       </c>
       <c r="I145">
-        <v>111.2051895988251</v>
+        <v>1116616.087163538</v>
       </c>
       <c r="J145">
-        <v>171.297938049159</v>
+        <v>4841415.023886651</v>
       </c>
       <c r="K145">
-        <v>1085.583130102501</v>
+        <v>3985514.982357346</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5517,34 @@
         <v>36</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>48.00087215498106</v>
+        <v>1116407.060805736</v>
       </c>
       <c r="G146">
-        <v>422.8009822729558</v>
+        <v>4841636.916297824</v>
       </c>
       <c r="H146">
-        <v>2061.360971269221</v>
+        <v>3986235.325143373</v>
       </c>
       <c r="I146">
-        <v>142.9042332489065</v>
+        <v>1116688.929749537</v>
       </c>
       <c r="J146">
-        <v>129.6056810812126</v>
+        <v>4841366.372380234</v>
       </c>
       <c r="K146">
-        <v>843.56171615424</v>
+        <v>3985258.278339879</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5552,34 @@
         <v>36</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>47.24527542448802</v>
+        <v>1116406.365149127</v>
       </c>
       <c r="G147">
-        <v>439.7509234703083</v>
+        <v>4841653.429118588</v>
       </c>
       <c r="H147">
-        <v>2071.82878177062</v>
+        <v>3986244.831461867</v>
       </c>
       <c r="I147">
-        <v>175.3838366862852</v>
+        <v>1116763.566017203</v>
       </c>
       <c r="J147">
-        <v>87.91342411326644</v>
+        <v>4841317.720873818</v>
       </c>
       <c r="K147">
-        <v>587.2581180719989</v>
+        <v>3984986.42568748</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5587,34 @@
         <v>36</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>46.52426267008193</v>
+        <v>1116405.70133301</v>
       </c>
       <c r="G148">
-        <v>456.7008646676608</v>
+        <v>4841669.941939353</v>
       </c>
       <c r="H148">
-        <v>2081.975053489512</v>
+        <v>3986254.045775643</v>
       </c>
       <c r="I148">
-        <v>208.6632204776229</v>
+        <v>1116840.040134296</v>
       </c>
       <c r="J148">
-        <v>46.22116714532005</v>
+        <v>4841269.069367401</v>
       </c>
       <c r="K148">
-        <v>316.6723358557767</v>
+        <v>3984699.42440015</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5622,34 @@
         <v>36</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>45.83527444669188</v>
+        <v>1116405.067000976</v>
       </c>
       <c r="G149">
-        <v>473.6508058650135</v>
+        <v>4841686.454760117</v>
       </c>
       <c r="H149">
-        <v>2091.818952519475</v>
+        <v>3986262.985490343</v>
       </c>
       <c r="I149">
-        <v>242.7620784783502</v>
+        <v>1116918.397356167</v>
       </c>
       <c r="J149">
-        <v>4.528910177373666</v>
+        <v>4841220.417860985</v>
       </c>
       <c r="K149">
-        <v>31.80436950557434</v>
+        <v>3984397.27447789</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5657,34 @@
         <v>36</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>45.17600880609819</v>
+        <v>1116404.460033686</v>
       </c>
       <c r="G150">
-        <v>490.6007470623659</v>
+        <v>4841702.967580881</v>
       </c>
       <c r="H150">
-        <v>2101.377980771583</v>
+        <v>3986271.666500287</v>
       </c>
       <c r="I150">
-        <v>277.700589486971</v>
+        <v>1116998.68405254</v>
       </c>
       <c r="J150">
-        <v>-37.16334679057253</v>
+        <v>4841171.766354568</v>
       </c>
       <c r="K150">
-        <v>-267.3457809786075</v>
+        <v>3984079.975920698</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5692,34 @@
         <v>36</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>44.54438892735777</v>
+        <v>1116403.87851907</v>
       </c>
       <c r="G151">
-        <v>507.5506882597185</v>
+        <v>4841719.480401645</v>
       </c>
       <c r="H151">
-        <v>2110.668163234074</v>
+        <v>3986280.103358535</v>
       </c>
       <c r="I151">
-        <v>313.4994291863386</v>
+        <v>1117080.947734948</v>
       </c>
       <c r="J151">
-        <v>-78.85560375851891</v>
+        <v>4841123.114848152</v>
       </c>
       <c r="K151">
-        <v>-580.7781155967705</v>
+        <v>3983747.528728575</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5727,34 @@
         <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>43.93853558442125</v>
+        <v>1116403.320726976</v>
       </c>
       <c r="G152">
-        <v>524.5006294570711</v>
+        <v>4841735.99322241</v>
       </c>
       <c r="H152">
-        <v>2119.70420961219</v>
+        <v>3986288.309423672</v>
       </c>
       <c r="I152">
-        <v>350.1797823789747</v>
+        <v>1117165.237084855</v>
       </c>
       <c r="J152">
-        <v>-120.5478607264653</v>
+        <v>4841074.463341734</v>
       </c>
       <c r="K152">
-        <v>-908.4926343489145</v>
+        <v>3983399.932901521</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5762,34 @@
         <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>43.35674361943025</v>
+        <v>1116402.785087516</v>
       </c>
       <c r="G153">
-        <v>541.4505706544236</v>
+        <v>4841752.506043174</v>
       </c>
       <c r="H153">
-        <v>2128.499654442609</v>
+        <v>3986296.296987055</v>
       </c>
       <c r="I153">
-        <v>387.7633555236732</v>
+        <v>1117251.601982458</v>
       </c>
       <c r="J153">
-        <v>-162.2401176944117</v>
+        <v>4841025.811835319</v>
       </c>
       <c r="K153">
-        <v>-1250.489337235038</v>
+        <v>3983037.188439536</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5797,34 @@
         <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>42.79746175082685</v>
+        <v>1116402.270172466</v>
       </c>
       <c r="G154">
-        <v>558.4005118517761</v>
+        <v>4841769.018863939</v>
       </c>
       <c r="H154">
-        <v>2137.06697903321</v>
+        <v>3986304.077383556</v>
       </c>
       <c r="I154">
-        <v>426.2723895808064</v>
+        <v>1117340.09353621</v>
       </c>
       <c r="J154">
-        <v>-203.9323746623577</v>
+        <v>4840977.160328902</v>
       </c>
       <c r="K154">
-        <v>-1606.76822425514</v>
+        <v>3982659.29534262</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5832,34 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>42.25927517177116</v>
+        <v>1116401.774679255</v>
       </c>
       <c r="G155">
-        <v>575.3504530491288</v>
+        <v>4841785.531684702</v>
       </c>
       <c r="H155">
-        <v>2145.417717985798</v>
+        <v>3986311.6610883</v>
       </c>
       <c r="I155">
-        <v>465.7296731739353</v>
+        <v>1117430.764113063</v>
       </c>
       <c r="J155">
-        <v>-245.6246316303041</v>
+        <v>4840928.508822486</v>
       </c>
       <c r="K155">
-        <v>-1977.329295409224</v>
+        <v>3982266.253610773</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5867,34 @@
         <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>41.74089049441431</v>
+        <v>1116401.297417096</v>
       </c>
       <c r="G156">
-        <v>592.3003942464812</v>
+        <v>4841802.044505468</v>
       </c>
       <c r="H156">
-        <v>2153.562552583245</v>
+        <v>3986319.057801468</v>
       </c>
       <c r="I156">
-        <v>506.1585560755094</v>
+        <v>1117523.667369456</v>
       </c>
       <c r="J156">
-        <v>-287.3168885982504</v>
+        <v>4840879.857316068</v>
       </c>
       <c r="K156">
-        <v>-2362.172550697289</v>
+        <v>3981858.063243994</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5902,34 @@
         <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>41.24112267529263</v>
+        <v>1116400.837294954</v>
       </c>
       <c r="G157">
-        <v>609.2503354438337</v>
+        <v>4841818.557326232</v>
       </c>
       <c r="H157">
-        <v>2161.511392938091</v>
+        <v>3986326.276522906</v>
       </c>
       <c r="I157">
-        <v>547.5829630246444</v>
+        <v>1117618.858283067</v>
       </c>
       <c r="J157">
-        <v>-329.0091455661968</v>
+        <v>4840831.205809652</v>
       </c>
       <c r="K157">
-        <v>-2761.297990119334</v>
+        <v>3981434.724242285</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5937,34 @@
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>40.75888362100562</v>
+        <v>1116400.393311051</v>
       </c>
       <c r="G158">
-        <v>626.2002766411864</v>
+        <v>4841835.070146996</v>
       </c>
       <c r="H158">
-        <v>2169.273450487531</v>
+        <v>3986333.325617961</v>
       </c>
       <c r="I158">
-        <v>590.0274078851469</v>
+        <v>1117716.393185352</v>
       </c>
       <c r="J158">
-        <v>-370.7014025341432</v>
+        <v>4840782.554303236</v>
       </c>
       <c r="K158">
-        <v>-3174.705613675359</v>
+        <v>3980996.236605645</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5972,34 @@
         <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>40.29317222483664</v>
+        <v>1116399.964543698</v>
       </c>
       <c r="G159">
-        <v>643.1502178385389</v>
+        <v>4841851.58296776</v>
       </c>
       <c r="H159">
-        <v>2176.85730216488</v>
+        <v>3986340.212875755</v>
       </c>
       <c r="I159">
-        <v>633.5170081521649</v>
+        <v>1117816.329794876</v>
       </c>
       <c r="J159">
-        <v>-412.3936595020892</v>
+        <v>4840733.90279682</v>
       </c>
       <c r="K159">
-        <v>-3602.395421365362</v>
+        <v>3980542.600334073</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,1889 +6007,34 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>39.8430656267117</v>
+        <v>1116399.550143242</v>
       </c>
       <c r="G160">
-        <v>660.1001590358914</v>
+        <v>4841868.095788525</v>
       </c>
       <c r="H160">
-        <v>2184.270947368662</v>
+        <v>3986346.945560925</v>
       </c>
       <c r="I160">
-        <v>678.0774998160603</v>
+        <v>1117918.727251469</v>
       </c>
       <c r="J160">
-        <v>-454.0859164700356</v>
+        <v>4840685.251290402</v>
       </c>
       <c r="K160">
-        <v>-4044.367413189349</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>36</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G161">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H161">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I161">
-        <v>-1536.643665152584</v>
-      </c>
-      <c r="J161">
-        <v>1398.161948559764</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>36</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G162">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H162">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I162">
-        <v>-1506.306227524043</v>
-      </c>
-      <c r="J162">
-        <v>1364.150548855971</v>
-      </c>
-      <c r="K162">
-        <v>292.7881823844331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>36</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G163">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H163">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I163">
-        <v>-1475.221758403829</v>
-      </c>
-      <c r="J163">
-        <v>1330.139149152178</v>
-      </c>
-      <c r="K163">
-        <v>570.9766039023312</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>36</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G164">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H164">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I164">
-        <v>-1443.371862828718</v>
-      </c>
-      <c r="J164">
-        <v>1296.127749448385</v>
-      </c>
-      <c r="K164">
-        <v>834.5652645536965</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>36</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G165">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H165">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I165">
-        <v>-1410.737692876436</v>
-      </c>
-      <c r="J165">
-        <v>1262.116349744592</v>
-      </c>
-      <c r="K165">
-        <v>1083.554164338527</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>36</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G166">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H166">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I166">
-        <v>-1377.299936511965</v>
-      </c>
-      <c r="J166">
-        <v>1228.104950040798</v>
-      </c>
-      <c r="K166">
-        <v>1317.943303256825</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>36</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G167">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H167">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I167">
-        <v>-1343.03880615919</v>
-      </c>
-      <c r="J167">
-        <v>1194.093550337005</v>
-      </c>
-      <c r="K167">
-        <v>1537.732681308589</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>36</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G168">
-        <v>-97.37819793887019</v>
-      </c>
-      <c r="H168">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I168">
-        <v>-1307.934026991141</v>
-      </c>
-      <c r="J168">
-        <v>1160.082150633212</v>
-      </c>
-      <c r="K168">
-        <v>1742.922298493819</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>36</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>240.3132891933511</v>
-      </c>
-      <c r="G169">
-        <v>-81.29831644322076</v>
-      </c>
-      <c r="H169">
-        <v>796.9664954628093</v>
-      </c>
-      <c r="I169">
-        <v>-1271.964824931883</v>
-      </c>
-      <c r="J169">
-        <v>1126.070750929419</v>
-      </c>
-      <c r="K169">
-        <v>1933.512154812515</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>36</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>186.5111465113254</v>
-      </c>
-      <c r="G170">
-        <v>-65.21843494757131</v>
-      </c>
-      <c r="H170">
-        <v>981.8573595781497</v>
-      </c>
-      <c r="I170">
-        <v>-1235.109914362974</v>
-      </c>
-      <c r="J170">
-        <v>1092.059351225626</v>
-      </c>
-      <c r="K170">
-        <v>2109.502250264677</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>36</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>154.9050866924651</v>
-      </c>
-      <c r="G171">
-        <v>-49.13855345192189</v>
-      </c>
-      <c r="H171">
-        <v>1091.987813923014</v>
-      </c>
-      <c r="I171">
-        <v>-1197.347485527203</v>
-      </c>
-      <c r="J171">
-        <v>1058.047951521833</v>
-      </c>
-      <c r="K171">
-        <v>2270.892584850305</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>36</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>134.9530229969351</v>
-      </c>
-      <c r="G172">
-        <v>-33.05867195627245</v>
-      </c>
-      <c r="H172">
-        <v>1170.690606210437</v>
-      </c>
-      <c r="I172">
-        <v>-1158.655191622147</v>
-      </c>
-      <c r="J172">
-        <v>1024.03655181804</v>
-      </c>
-      <c r="K172">
-        <v>2417.6831585694</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>36</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>121.0385347658538</v>
-      </c>
-      <c r="G173">
-        <v>-16.97879046062301</v>
-      </c>
-      <c r="H173">
-        <v>1231.976428399601</v>
-      </c>
-      <c r="I173">
-        <v>-1119.010135575938</v>
-      </c>
-      <c r="J173">
-        <v>990.0251521142471</v>
-      </c>
-      <c r="K173">
-        <v>2549.873971421961</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>36</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>110.6579098540878</v>
-      </c>
-      <c r="G174">
-        <v>-0.8989089649735793</v>
-      </c>
-      <c r="H174">
-        <v>1282.174270534208</v>
-      </c>
-      <c r="I174">
-        <v>-1078.388856497374</v>
-      </c>
-      <c r="J174">
-        <v>956.0137524104542</v>
-      </c>
-      <c r="K174">
-        <v>2667.465023407988</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>36</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>102.5417107843795</v>
-      </c>
-      <c r="G175">
-        <v>15.18097253067586</v>
-      </c>
-      <c r="H175">
-        <v>1324.688178557344</v>
-      </c>
-      <c r="I175">
-        <v>-1036.767315792391</v>
-      </c>
-      <c r="J175">
-        <v>922.0023527066611</v>
-      </c>
-      <c r="K175">
-        <v>2770.456314527482</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>36</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>95.97511477715354</v>
-      </c>
-      <c r="G176">
-        <v>31.2608540263253</v>
-      </c>
-      <c r="H176">
-        <v>1361.561250830837</v>
-      </c>
-      <c r="I176">
-        <v>-994.1208829386635</v>
-      </c>
-      <c r="J176">
-        <v>887.9909530028682</v>
-      </c>
-      <c r="K176">
-        <v>2858.847844780441</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>36</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>90.52250028191989</v>
-      </c>
-      <c r="G177">
-        <v>47.34073552197473</v>
-      </c>
-      <c r="H177">
-        <v>1394.116524921456</v>
-      </c>
-      <c r="I177">
-        <v>-950.4243209099119</v>
-      </c>
-      <c r="J177">
-        <v>853.9795532990751</v>
-      </c>
-      <c r="K177">
-        <v>2932.639614166867</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>36</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>85.90181975547527</v>
-      </c>
-      <c r="G178">
-        <v>63.42061701762418</v>
-      </c>
-      <c r="H178">
-        <v>1423.260046293863</v>
-      </c>
-      <c r="I178">
-        <v>-905.651771241302</v>
-      </c>
-      <c r="J178">
-        <v>819.9681535952819</v>
-      </c>
-      <c r="K178">
-        <v>2991.83162268676</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>36</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>81.92155427722793</v>
-      </c>
-      <c r="G179">
-        <v>79.50049851327361</v>
-      </c>
-      <c r="H179">
-        <v>1449.639561783355</v>
-      </c>
-      <c r="I179">
-        <v>-859.7767387270928</v>
-      </c>
-      <c r="J179">
-        <v>785.956753891489</v>
-      </c>
-      <c r="K179">
-        <v>3036.423870340117</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>36</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>78.4465768474974</v>
-      </c>
-      <c r="G180">
-        <v>95.58038000892303</v>
-      </c>
-      <c r="H180">
-        <v>1473.734237113233</v>
-      </c>
-      <c r="I180">
-        <v>-812.7720757414776</v>
-      </c>
-      <c r="J180">
-        <v>751.9453541876959</v>
-      </c>
-      <c r="K180">
-        <v>3066.416357126942</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>36</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>75.37850021317678</v>
-      </c>
-      <c r="G181">
-        <v>111.6602615045725</v>
-      </c>
-      <c r="H181">
-        <v>1495.908514754162</v>
-      </c>
-      <c r="I181">
-        <v>-764.6099661733383</v>
-      </c>
-      <c r="J181">
-        <v>717.933954483903</v>
-      </c>
-      <c r="K181">
-        <v>3081.809083047233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>36</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>72.64377954344761</v>
-      </c>
-      <c r="G182">
-        <v>127.7401430002219</v>
-      </c>
-      <c r="H182">
-        <v>1516.446045629694</v>
-      </c>
-      <c r="I182">
-        <v>-715.261908965412</v>
-      </c>
-      <c r="J182">
-        <v>683.9225547801099</v>
-      </c>
-      <c r="K182">
-        <v>3082.60204810099</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>36</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>70.18620112999717</v>
-      </c>
-      <c r="G183">
-        <v>143.8200244958714</v>
-      </c>
-      <c r="H183">
-        <v>1535.571935017251</v>
-      </c>
-      <c r="I183">
-        <v>-664.6987012481208</v>
-      </c>
-      <c r="J183">
-        <v>649.9111550763168</v>
-      </c>
-      <c r="K183">
-        <v>3068.795252288212</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>36</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>67.96196871800656</v>
-      </c>
-      <c r="G184">
-        <v>159.8999059915208</v>
-      </c>
-      <c r="H184">
-        <v>1553.467822376292</v>
-      </c>
-      <c r="I184">
-        <v>-612.890421058089</v>
-      </c>
-      <c r="J184">
-        <v>615.8997553725238</v>
-      </c>
-      <c r="K184">
-        <v>3040.388695608902</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>36</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>65.93638979489361</v>
-      </c>
-      <c r="G185">
-        <v>175.9797874871703</v>
-      </c>
-      <c r="H185">
-        <v>1570.282398313619</v>
-      </c>
-      <c r="I185">
-        <v>-559.8064096311217</v>
-      </c>
-      <c r="J185">
-        <v>581.8883556687308</v>
-      </c>
-      <c r="K185">
-        <v>2997.382378063057</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>36</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>64.08158116397492</v>
-      </c>
-      <c r="G186">
-        <v>192.0596689828197</v>
-      </c>
-      <c r="H186">
-        <v>1586.138921326163</v>
-      </c>
-      <c r="I186">
-        <v>-505.4152532591605</v>
-      </c>
-      <c r="J186">
-        <v>547.8769559649377</v>
-      </c>
-      <c r="K186">
-        <v>2939.776299650679</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>36</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>62.37484321550235</v>
-      </c>
-      <c r="G187">
-        <v>208.1395504784691</v>
-      </c>
-      <c r="H187">
-        <v>1601.140706183429</v>
-      </c>
-      <c r="I187">
-        <v>-449.6847647004863</v>
-      </c>
-      <c r="J187">
-        <v>513.8655562611448</v>
-      </c>
-      <c r="K187">
-        <v>2867.570460371767</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>36</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>60.79748434088295</v>
-      </c>
-      <c r="G188">
-        <v>224.2194319741185</v>
-      </c>
-      <c r="H188">
-        <v>1615.375207265221</v>
-      </c>
-      <c r="I188">
-        <v>-392.5819641321635</v>
-      </c>
-      <c r="J188">
-        <v>479.8541565573516</v>
-      </c>
-      <c r="K188">
-        <v>2780.764860226321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>36</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>59.33395535161872</v>
-      </c>
-      <c r="G189">
-        <v>240.299313469768</v>
-      </c>
-      <c r="H189">
-        <v>1628.917107547196</v>
-      </c>
-      <c r="I189">
-        <v>-334.0730596334591</v>
-      </c>
-      <c r="J189">
-        <v>445.8427568535586</v>
-      </c>
-      <c r="K189">
-        <v>2679.359499214341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>36</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>57.97120177106356</v>
-      </c>
-      <c r="G190">
-        <v>256.3791949654174</v>
-      </c>
-      <c r="H190">
-        <v>1641.830690356524</v>
-      </c>
-      <c r="I190">
-        <v>-274.1234271886794</v>
-      </c>
-      <c r="J190">
-        <v>411.8313571497656</v>
-      </c>
-      <c r="K190">
-        <v>2563.354377335829</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>36</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>56.69817206093864</v>
-      </c>
-      <c r="G191">
-        <v>272.4590764610668</v>
-      </c>
-      <c r="H191">
-        <v>1654.171684900399</v>
-      </c>
-      <c r="I191">
-        <v>-212.6975901975977</v>
-      </c>
-      <c r="J191">
-        <v>377.8199574459725</v>
-      </c>
-      <c r="K191">
-        <v>2432.749494590781</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>36</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>55.50543929944171</v>
-      </c>
-      <c r="G192">
-        <v>288.5389579567163</v>
-      </c>
-      <c r="H192">
-        <v>1665.988719740822</v>
-      </c>
-      <c r="I192">
-        <v>-149.7591984813439</v>
-      </c>
-      <c r="J192">
-        <v>343.8085577421796</v>
-      </c>
-      <c r="K192">
-        <v>2287.5448509792</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>36</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>54.38490663890702</v>
-      </c>
-      <c r="G193">
-        <v>304.6188394523657</v>
-      </c>
-      <c r="H193">
-        <v>1677.324480098511</v>
-      </c>
-      <c r="I193">
-        <v>-85.27100677133606</v>
-      </c>
-      <c r="J193">
-        <v>309.7971580383865</v>
-      </c>
-      <c r="K193">
-        <v>2127.740446501085</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>36</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>53.3295754749503</v>
-      </c>
-      <c r="G194">
-        <v>320.6987209480152</v>
-      </c>
-      <c r="H194">
-        <v>1688.216638578967</v>
-      </c>
-      <c r="I194">
-        <v>-19.19485266851803</v>
-      </c>
-      <c r="J194">
-        <v>275.7857583345934</v>
-      </c>
-      <c r="K194">
-        <v>1953.336281156437</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>36</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>52.33336114189166</v>
-      </c>
-      <c r="G195">
-        <v>336.7786024436646</v>
-      </c>
-      <c r="H195">
-        <v>1698.698610552447</v>
-      </c>
-      <c r="I195">
-        <v>48.50836594013496</v>
-      </c>
-      <c r="J195">
-        <v>241.7743586308005</v>
-      </c>
-      <c r="K195">
-        <v>1764.332354945255</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>36</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>51.39094503797016</v>
-      </c>
-      <c r="G196">
-        <v>352.858483939314</v>
-      </c>
-      <c r="H196">
-        <v>1708.80017239421</v>
-      </c>
-      <c r="I196">
-        <v>117.8787140212069</v>
-      </c>
-      <c r="J196">
-        <v>207.7629589270074</v>
-      </c>
-      <c r="K196">
-        <v>1560.728667867539</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>36</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>50.49765496855471</v>
-      </c>
-      <c r="G197">
-        <v>368.9383654349635</v>
-      </c>
-      <c r="H197">
-        <v>1718.547971418523</v>
-      </c>
-      <c r="I197">
-        <v>188.9572431042259</v>
-      </c>
-      <c r="J197">
-        <v>173.7515592232145</v>
-      </c>
-      <c r="K197">
-        <v>1342.525219923289</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>36</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>49.64936755910735</v>
-      </c>
-      <c r="G198">
-        <v>385.0182469306129</v>
-      </c>
-      <c r="H198">
-        <v>1727.965949506083</v>
-      </c>
-      <c r="I198">
-        <v>261.7860155748657</v>
-      </c>
-      <c r="J198">
-        <v>139.7401595194214</v>
-      </c>
-      <c r="K198">
-        <v>1109.722011112505</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>36</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-      <c r="C199" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>48.84242808474416</v>
-      </c>
-      <c r="G199">
-        <v>401.0981284262623</v>
-      </c>
-      <c r="H199">
-        <v>1737.075697381386</v>
-      </c>
-      <c r="I199">
-        <v>336.4081295663536</v>
-      </c>
-      <c r="J199">
-        <v>105.7287598156283</v>
-      </c>
-      <c r="K199">
-        <v>862.3190414351875</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>36</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>48.07358415934593</v>
-      </c>
-      <c r="G200">
-        <v>417.1780099219118</v>
-      </c>
-      <c r="H200">
-        <v>1745.896752732783</v>
-      </c>
-      <c r="I200">
-        <v>412.8677444637947</v>
-      </c>
-      <c r="J200">
-        <v>71.71736011183533</v>
-      </c>
-      <c r="K200">
-        <v>600.3163108913367</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>36</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>47.33993053964585</v>
-      </c>
-      <c r="G201">
-        <v>433.2578914175612</v>
-      </c>
-      <c r="H201">
-        <v>1754.446852529744</v>
-      </c>
-      <c r="I201">
-        <v>491.210107036531</v>
-      </c>
-      <c r="J201">
-        <v>37.70596040804224</v>
-      </c>
-      <c r="K201">
-        <v>323.7138194809513</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>36</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>46.63886290813466</v>
-      </c>
-      <c r="G202">
-        <v>449.3377729132107</v>
-      </c>
-      <c r="H202">
-        <v>1762.742147730709</v>
-      </c>
-      <c r="I202">
-        <v>571.4815782139683</v>
-      </c>
-      <c r="J202">
-        <v>3.694560704249143</v>
-      </c>
-      <c r="K202">
-        <v>32.51156720403227</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>36</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>45.968038958614</v>
-      </c>
-      <c r="G203">
-        <v>465.4176544088601</v>
-      </c>
-      <c r="H203">
-        <v>1770.797386914313</v>
-      </c>
-      <c r="I203">
-        <v>653.72966052075</v>
-      </c>
-      <c r="J203">
-        <v>-30.31683899954379</v>
-      </c>
-      <c r="K203">
-        <v>-273.2904459394196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>36</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>45.32534545911533</v>
-      </c>
-      <c r="G204">
-        <v>481.4975359045095</v>
-      </c>
-      <c r="H204">
-        <v>1778.6260740801</v>
-      </c>
-      <c r="I204">
-        <v>738.0030261874883</v>
-      </c>
-      <c r="J204">
-        <v>-64.32823870333689</v>
-      </c>
-      <c r="K204">
-        <v>-593.6922199494062</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>36</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>44.70887023681651</v>
-      </c>
-      <c r="G205">
-        <v>497.577417400159</v>
-      </c>
-      <c r="H205">
-        <v>1786.240604859818</v>
-      </c>
-      <c r="I205">
-        <v>824.3515459536959</v>
-      </c>
-      <c r="J205">
-        <v>-98.33963840712998</v>
-      </c>
-      <c r="K205">
-        <v>-928.6937548259274</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>36</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>44.11687823886682</v>
-      </c>
-      <c r="G206">
-        <v>513.6572988958084</v>
-      </c>
-      <c r="H206">
-        <v>1793.652384589582</v>
-      </c>
-      <c r="I206">
-        <v>912.8263185799645</v>
-      </c>
-      <c r="J206">
-        <v>-132.3510381109231</v>
-      </c>
-      <c r="K206">
-        <v>-1278.295050568982</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>36</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>43.54779098649013</v>
-      </c>
-      <c r="G207">
-        <v>529.7371803914577</v>
-      </c>
-      <c r="H207">
-        <v>1800.871931066561</v>
-      </c>
-      <c r="I207">
-        <v>1003.479701086856</v>
-      </c>
-      <c r="J207">
-        <v>-166.3624378147159</v>
-      </c>
-      <c r="K207">
-        <v>-1642.496107178567</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>36</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>43.00016886831629</v>
-      </c>
-      <c r="G208">
-        <v>545.8170618871073</v>
-      </c>
-      <c r="H208">
-        <v>1807.908964313963</v>
-      </c>
-      <c r="I208">
-        <v>1096.365339738399</v>
-      </c>
-      <c r="J208">
-        <v>-200.3738375185089</v>
-      </c>
-      <c r="K208">
-        <v>-2021.296924654689</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>36</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>42.47269582069568</v>
-      </c>
-      <c r="G209">
-        <v>561.8969433827567</v>
-      </c>
-      <c r="H209">
-        <v>1814.772485276866</v>
-      </c>
-      <c r="I209">
-        <v>1191.538201788514</v>
-      </c>
-      <c r="J209">
-        <v>-234.385237222302</v>
-      </c>
-      <c r="K209">
-        <v>-2414.697502997345</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>36</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>41.96416602386809</v>
-      </c>
-      <c r="G210">
-        <v>577.9768248784061</v>
-      </c>
-      <c r="H210">
-        <v>1821.47084504753</v>
-      </c>
-      <c r="I210">
-        <v>1289.054608009186</v>
-      </c>
-      <c r="J210">
-        <v>-268.3966369260951</v>
-      </c>
-      <c r="K210">
-        <v>-2822.697842206534</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>36</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>41.47347230787435</v>
-      </c>
-      <c r="G211">
-        <v>594.0567063740556</v>
-      </c>
-      <c r="H211">
-        <v>1828.011805955752</v>
-      </c>
-      <c r="I211">
-        <v>1388.972266019594</v>
-      </c>
-      <c r="J211">
-        <v>-302.4080366298882</v>
-      </c>
-      <c r="K211">
-        <v>-3245.297942282258</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>36</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>40.9995960144981</v>
-      </c>
-      <c r="G212">
-        <v>610.136587869705</v>
-      </c>
-      <c r="H212">
-        <v>1834.402595645128</v>
-      </c>
-      <c r="I212">
-        <v>1491.350304435946</v>
-      </c>
-      <c r="J212">
-        <v>-336.419436333681</v>
-      </c>
-      <c r="K212">
-        <v>-3682.497803224511</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>36</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" t="s">
-        <v>20</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>40.54159810399337</v>
-      </c>
-      <c r="G213">
-        <v>626.2164693653544</v>
-      </c>
-      <c r="H213">
-        <v>1840.649955079982</v>
-      </c>
-      <c r="I213">
-        <v>1596.249307862234</v>
-      </c>
-      <c r="J213">
-        <v>-370.4308360374741</v>
-      </c>
-      <c r="K213">
-        <v>-4134.297425033303</v>
+        <v>3980073.815427571</v>
       </c>
     </row>
   </sheetData>
